--- a/teaching/traditional_assets/database/data/turkey/turkey_healthcare_support_services.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_healthcare_support_services.xlsx
@@ -650,10 +650,10 @@
         <v>0.146318379708499</v>
       </c>
       <c r="X2">
-        <v>0.08865701434447595</v>
+        <v>0.08581138411382402</v>
       </c>
       <c r="Y2">
-        <v>0.057661365364023</v>
+        <v>0.06050699559467493</v>
       </c>
       <c r="Z2">
         <v>6.29705762841504</v>
@@ -662,10 +662,10 @@
         <v>0.1641112281031398</v>
       </c>
       <c r="AB2">
-        <v>0.08839359303098038</v>
+        <v>0.08552501126971608</v>
       </c>
       <c r="AC2">
-        <v>0.07571763507215939</v>
+        <v>0.07858621683342369</v>
       </c>
       <c r="AD2">
         <v>11.9</v>
@@ -784,10 +784,10 @@
         <v>0.146318379708499</v>
       </c>
       <c r="X3">
-        <v>0.08865701434447595</v>
+        <v>0.08581138411382402</v>
       </c>
       <c r="Y3">
-        <v>0.057661365364023</v>
+        <v>0.06050699559467493</v>
       </c>
       <c r="Z3">
         <v>6.29705762841504</v>
@@ -796,10 +796,10 @@
         <v>0.1641112281031398</v>
       </c>
       <c r="AB3">
-        <v>0.08839359303098038</v>
+        <v>0.08552501126971608</v>
       </c>
       <c r="AC3">
-        <v>0.07571763507215939</v>
+        <v>0.07858621683342369</v>
       </c>
       <c r="AD3">
         <v>11.9</v>
@@ -1099,37 +1099,37 @@
         <v>0.010318217289517</v>
       </c>
       <c r="F2">
-        <v>0.58</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
         <v>1141.4</v>
       </c>
       <c r="H2">
-        <v>569.005971892045</v>
+        <v>385.436019560065</v>
       </c>
       <c r="I2">
         <v>1023.2</v>
       </c>
       <c r="J2">
-        <v>1107.81997189205</v>
+        <v>1120.31101956007</v>
       </c>
       <c r="K2">
         <v>11.9</v>
       </c>
       <c r="L2">
-        <v>668.914</v>
+        <v>864.975</v>
       </c>
       <c r="M2">
-        <v>0.08839359303098041</v>
+        <v>0.08552501126971609</v>
       </c>
       <c r="N2">
-        <v>0.08284858756286929</v>
+        <v>0.0789176598903764</v>
       </c>
       <c r="O2">
-        <v>0.0631272831802361</v>
+        <v>0.058057283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1142,19 +1142,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.088657014344476</v>
+        <v>0.085811384113824</v>
       </c>
       <c r="T2">
-        <v>0.165913684673498</v>
+        <v>0.262786639561506</v>
       </c>
       <c r="U2">
         <v>0.761327035280848</v>
       </c>
       <c r="V2">
-        <v>1.56862873857558</v>
+        <v>2.52232048885125</v>
       </c>
       <c r="W2">
-        <v>4.531117355970343</v>
+        <v>4.51187013180339</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1163,16 +1163,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>1141.4</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08093241433363596</v>
+        <v>0.07443241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08806931174102389</v>
+        <v>0.08519420346152869</v>
       </c>
       <c r="C2">
-        <v>1157.891224240138</v>
+        <v>1157.759926238095</v>
       </c>
       <c r="D2">
-        <v>1027.791224240138</v>
+        <v>1027.659926238095</v>
       </c>
       <c r="E2">
         <v>-11.9</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08806931174102389</v>
+        <v>0.08519420346152869</v>
       </c>
       <c r="T2">
         <v>0.7551857751051637</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1449,13 +1449,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.08792937925519365</v>
+        <v>0.08506059621391332</v>
       </c>
       <c r="C3">
-        <v>1148.352160447652</v>
+        <v>1148.039251128485</v>
       </c>
       <c r="D3">
-        <v>1029.785160447652</v>
+        <v>1029.472251128485</v>
       </c>
       <c r="E3">
         <v>-0.3669999999999991</v>
@@ -1482,37 +1482,37 @@
         <v>88.2</v>
       </c>
       <c r="M3">
-        <v>0.2617991000000001</v>
+        <v>0.1868346</v>
       </c>
       <c r="N3">
-        <v>87.9382009</v>
+        <v>88.01316540000001</v>
       </c>
       <c r="O3">
-        <v>19.346404198</v>
+        <v>19.362896388</v>
       </c>
       <c r="P3">
-        <v>68.591796702</v>
+        <v>68.650269012</v>
       </c>
       <c r="Q3">
-        <v>75.291796702</v>
+        <v>75.350269012</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.08863870631837742</v>
+        <v>0.08579215779183164</v>
       </c>
       <c r="T3">
         <v>0.7611357236362952</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>336.8995538945702</v>
+        <v>472.0753008275769</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.0877894467693634</v>
+        <v>0.08492698896629795</v>
       </c>
       <c r="C4">
-        <v>1138.820848248285</v>
+        <v>1138.324979546073</v>
       </c>
       <c r="D4">
-        <v>1031.786848248285</v>
+        <v>1031.290979546073</v>
       </c>
       <c r="E4">
         <v>11.166</v>
@@ -1564,37 +1564,37 @@
         <v>88.2</v>
       </c>
       <c r="M4">
-        <v>0.5235982000000001</v>
+        <v>0.3736692</v>
       </c>
       <c r="N4">
-        <v>87.67640180000001</v>
+        <v>87.82633080000001</v>
       </c>
       <c r="O4">
-        <v>19.288808396</v>
+        <v>19.321792776</v>
       </c>
       <c r="P4">
-        <v>68.387593404</v>
+        <v>68.504538024</v>
       </c>
       <c r="Q4">
-        <v>75.087593404</v>
+        <v>75.204538024</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.08921972119322796</v>
+        <v>0.0864023152717326</v>
       </c>
       <c r="T4">
         <v>0.7672070996884703</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>168.4497769472851</v>
+        <v>236.0376504137884</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1613,13 +1613,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.08764951428353315</v>
+        <v>0.0847933817186826</v>
       </c>
       <c r="C5">
-        <v>1129.297332932518</v>
+        <v>1128.617145489509</v>
       </c>
       <c r="D5">
-        <v>1033.796332932518</v>
+        <v>1033.116145489509</v>
       </c>
       <c r="E5">
         <v>22.69900000000001</v>
@@ -1646,37 +1646,37 @@
         <v>88.2</v>
       </c>
       <c r="M5">
-        <v>0.7853973000000002</v>
+        <v>0.5605038</v>
       </c>
       <c r="N5">
-        <v>87.4146027</v>
+        <v>87.6394962</v>
       </c>
       <c r="O5">
-        <v>19.231212594</v>
+        <v>19.280689164</v>
       </c>
       <c r="P5">
-        <v>68.183390106</v>
+        <v>68.358807036</v>
       </c>
       <c r="Q5">
-        <v>74.88339010600001</v>
+        <v>75.058807036</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.08981271575621974</v>
+        <v>0.08702505331822949</v>
       </c>
       <c r="T5">
         <v>0.7734036587520305</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>112.2998512981901</v>
+        <v>157.3584336091923</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.08750958179770289</v>
+        <v>0.08465977447106722</v>
       </c>
       <c r="C6">
-        <v>1119.781660144348</v>
+        <v>1118.915783198547</v>
       </c>
       <c r="D6">
-        <v>1035.813660144348</v>
+        <v>1034.947783198547</v>
       </c>
       <c r="E6">
         <v>34.23200000000001</v>
@@ -1728,37 +1728,37 @@
         <v>88.2</v>
       </c>
       <c r="M6">
-        <v>1.0471964</v>
+        <v>0.7473384000000001</v>
       </c>
       <c r="N6">
-        <v>87.1528036</v>
+        <v>87.4526616</v>
       </c>
       <c r="O6">
-        <v>19.173616792</v>
+        <v>19.239585552</v>
       </c>
       <c r="P6">
-        <v>67.97918680799999</v>
+        <v>68.213076048</v>
       </c>
       <c r="Q6">
-        <v>74.679186808</v>
+        <v>74.91307604800001</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.09041806437260719</v>
+        <v>0.08766076507402837</v>
       </c>
       <c r="T6">
         <v>0.7797293127960815</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>84.22488847364255</v>
+        <v>118.0188252068942</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.08736964931187265</v>
+        <v>0.08452616722345188</v>
       </c>
       <c r="C7">
-        <v>1110.273875884742</v>
+        <v>1109.220927156195</v>
       </c>
       <c r="D7">
-        <v>1037.838875884742</v>
+        <v>1036.785927156195</v>
       </c>
       <c r="E7">
         <v>45.76500000000001</v>
@@ -1810,37 +1810,37 @@
         <v>88.2</v>
       </c>
       <c r="M7">
-        <v>1.3089955</v>
+        <v>0.9341730000000001</v>
       </c>
       <c r="N7">
-        <v>86.89100450000001</v>
+        <v>87.265827</v>
       </c>
       <c r="O7">
-        <v>19.11602099</v>
+        <v>19.19848194</v>
       </c>
       <c r="P7">
-        <v>67.77498351</v>
+        <v>68.06734506000001</v>
       </c>
       <c r="Q7">
-        <v>74.47498351</v>
+        <v>74.76734506000001</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.09103615717039226</v>
+        <v>0.08830986023521251</v>
       </c>
       <c r="T7">
         <v>0.7861881385042179</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>67.37991077891405</v>
+        <v>94.41506016551537</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.08722971682604237</v>
+        <v>0.08439255997583649</v>
       </c>
       <c r="C8">
-        <v>1100.774026515138</v>
+        <v>1099.532612090871</v>
       </c>
       <c r="D8">
-        <v>1039.872026515138</v>
+        <v>1038.630612090871</v>
       </c>
       <c r="E8">
         <v>57.29800000000001</v>
@@ -1892,37 +1892,37 @@
         <v>88.2</v>
       </c>
       <c r="M8">
-        <v>1.5707946</v>
+        <v>1.1210076</v>
       </c>
       <c r="N8">
-        <v>86.6292054</v>
+        <v>87.0789924</v>
       </c>
       <c r="O8">
-        <v>19.058425188</v>
+        <v>19.157378328</v>
       </c>
       <c r="P8">
-        <v>67.570780212</v>
+        <v>67.92161407200001</v>
       </c>
       <c r="Q8">
-        <v>74.27078021200001</v>
+        <v>74.62161407200001</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.09166740087876848</v>
+        <v>0.08897276593174096</v>
       </c>
       <c r="T8">
         <v>0.7927843860359314</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>56.14992564909504</v>
+        <v>78.67921680459615</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1941,13 +1941,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.08708978434021215</v>
+        <v>0.08425895272822116</v>
       </c>
       <c r="C9">
-        <v>1091.282158760975</v>
+        <v>1089.850872978595</v>
       </c>
       <c r="D9">
-        <v>1041.913158760975</v>
+        <v>1040.481872978595</v>
       </c>
       <c r="E9">
         <v>68.83100000000002</v>
@@ -1974,37 +1974,37 @@
         <v>88.2</v>
       </c>
       <c r="M9">
-        <v>1.832593700000001</v>
+        <v>1.3078422</v>
       </c>
       <c r="N9">
-        <v>86.3674063</v>
+        <v>86.89215780000001</v>
       </c>
       <c r="O9">
-        <v>19.000829386</v>
+        <v>19.116274716</v>
       </c>
       <c r="P9">
-        <v>67.36657691400001</v>
+        <v>67.775883084</v>
       </c>
       <c r="Q9">
-        <v>74.06657691400001</v>
+        <v>74.475883084</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.09231221972065823</v>
+        <v>0.08964992766475394</v>
       </c>
       <c r="T9">
         <v>0.7995224883532734</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>48.12850769922431</v>
+        <v>67.43932868965383</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.08694985185438188</v>
+        <v>0.0841253454806058</v>
       </c>
       <c r="C10">
-        <v>1081.798319715281</v>
+        <v>1080.175745045198</v>
       </c>
       <c r="D10">
-        <v>1043.962319715281</v>
+        <v>1042.339745045198</v>
       </c>
       <c r="E10">
         <v>80.364</v>
@@ -2056,37 +2056,37 @@
         <v>88.2</v>
       </c>
       <c r="M10">
-        <v>2.0943928</v>
+        <v>1.4946768</v>
       </c>
       <c r="N10">
-        <v>86.10560720000001</v>
+        <v>86.70532320000001</v>
       </c>
       <c r="O10">
-        <v>18.943233584</v>
+        <v>19.075171104</v>
       </c>
       <c r="P10">
-        <v>67.16237361600001</v>
+        <v>67.630152096</v>
       </c>
       <c r="Q10">
-        <v>73.86237361600001</v>
+        <v>74.33015209600001</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.09297105636345857</v>
+        <v>0.09034181030500629</v>
       </c>
       <c r="T10">
         <v>0.8064070711557748</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>42.11244423682128</v>
+        <v>59.00941260344712</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2105,13 +2105,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.08680991936855165</v>
+        <v>0.08399173823299043</v>
       </c>
       <c r="C11">
-        <v>1072.32255684229</v>
+        <v>1070.507263768556</v>
       </c>
       <c r="D11">
-        <v>1046.01955684229</v>
+        <v>1044.204263768557</v>
       </c>
       <c r="E11">
         <v>91.89700000000001</v>
@@ -2138,37 +2138,37 @@
         <v>88.2</v>
       </c>
       <c r="M11">
-        <v>2.3561919</v>
+        <v>1.6815114</v>
       </c>
       <c r="N11">
-        <v>85.8438081</v>
+        <v>86.5184886</v>
       </c>
       <c r="O11">
-        <v>18.885637782</v>
+        <v>19.034067492</v>
       </c>
       <c r="P11">
-        <v>66.958170318</v>
+        <v>67.48442110799999</v>
       </c>
       <c r="Q11">
-        <v>73.658170318</v>
+        <v>74.184421108</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.09364437293247432</v>
+        <v>0.09104889915713234</v>
       </c>
       <c r="T11">
         <v>0.8134429634704192</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>37.43328376606337</v>
+        <v>52.4528112030641</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2187,13 +2187,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.08666998688272137</v>
+        <v>0.08385813098537506</v>
       </c>
       <c r="C12">
-        <v>1062.854917981107</v>
+        <v>1060.84546488085</v>
       </c>
       <c r="D12">
-        <v>1048.084917981107</v>
+        <v>1046.07546488085</v>
       </c>
       <c r="E12">
         <v>103.43</v>
@@ -2220,37 +2220,37 @@
         <v>88.2</v>
       </c>
       <c r="M12">
-        <v>2.617991000000001</v>
+        <v>1.868346</v>
       </c>
       <c r="N12">
-        <v>85.582009</v>
+        <v>86.331654</v>
       </c>
       <c r="O12">
-        <v>18.82804198</v>
+        <v>18.99296388</v>
       </c>
       <c r="P12">
-        <v>66.75396702</v>
+        <v>67.33869012</v>
       </c>
       <c r="Q12">
-        <v>73.45396702000001</v>
+        <v>74.03869012</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.09433265209191263</v>
+        <v>0.09177170109486117</v>
       </c>
       <c r="T12">
         <v>0.8206352089476112</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>33.68995538945702</v>
+        <v>47.20753008275769</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2269,13 +2269,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.08653005439689114</v>
+        <v>0.0837245237377597</v>
       </c>
       <c r="C13">
-        <v>1053.395451349415</v>
+        <v>1051.190384370844</v>
       </c>
       <c r="D13">
-        <v>1050.158451349416</v>
+        <v>1047.953384370844</v>
       </c>
       <c r="E13">
         <v>114.963</v>
@@ -2302,37 +2302,37 @@
         <v>88.2</v>
       </c>
       <c r="M13">
-        <v>2.879790100000001</v>
+        <v>2.0551806</v>
       </c>
       <c r="N13">
-        <v>85.32020990000001</v>
+        <v>86.1448194</v>
       </c>
       <c r="O13">
-        <v>18.770446178</v>
+        <v>18.951860268</v>
       </c>
       <c r="P13">
-        <v>66.54976372200001</v>
+        <v>67.192959132</v>
       </c>
       <c r="Q13">
-        <v>73.24976372200001</v>
+        <v>73.892959132</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.09503639819875409</v>
+        <v>0.09251074577276371</v>
       </c>
       <c r="T13">
         <v>0.8279890779186728</v>
       </c>
       <c r="U13">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>30.62723217223366</v>
+        <v>42.91593643887063</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.08639012191106087</v>
+        <v>0.08359091649014434</v>
       </c>
       <c r="C14">
-        <v>1043.944205547236</v>
+        <v>1041.542058486199</v>
       </c>
       <c r="D14">
-        <v>1052.240205547236</v>
+        <v>1049.838058486199</v>
       </c>
       <c r="E14">
         <v>126.496</v>
@@ -2384,37 +2384,37 @@
         <v>88.2</v>
       </c>
       <c r="M14">
-        <v>3.141589200000001</v>
+        <v>2.2420152</v>
       </c>
       <c r="N14">
-        <v>85.0584108</v>
+        <v>85.95798480000001</v>
       </c>
       <c r="O14">
-        <v>18.712850376</v>
+        <v>18.910756656</v>
       </c>
       <c r="P14">
-        <v>66.345560424</v>
+        <v>67.047228144</v>
       </c>
       <c r="Q14">
-        <v>73.045560424</v>
+        <v>73.747228144</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.09575613853529644</v>
+        <v>0.09326658692061857</v>
       </c>
       <c r="T14">
         <v>0.8355100802754403</v>
       </c>
       <c r="U14">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>28.07496282454752</v>
+        <v>39.33960840229808</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2433,13 +2433,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.08625018942523062</v>
+        <v>0.08345730924252896</v>
       </c>
       <c r="C15">
-        <v>1034.501229560713</v>
+        <v>1031.900523735801</v>
       </c>
       <c r="D15">
-        <v>1054.330229560713</v>
+        <v>1051.729523735801</v>
       </c>
       <c r="E15">
         <v>138.029</v>
@@ -2466,37 +2466,37 @@
         <v>88.2</v>
       </c>
       <c r="M15">
-        <v>3.403388300000001</v>
+        <v>2.428849800000001</v>
       </c>
       <c r="N15">
-        <v>84.7966117</v>
+        <v>85.77115020000001</v>
       </c>
       <c r="O15">
-        <v>18.655254574</v>
+        <v>18.869653044</v>
       </c>
       <c r="P15">
-        <v>66.141357126</v>
+        <v>66.901497156</v>
       </c>
       <c r="Q15">
-        <v>72.84135712600001</v>
+        <v>73.60149715600001</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.09649242462670185</v>
+        <v>0.09403980372704479</v>
       </c>
       <c r="T15">
         <v>0.8432039792381104</v>
       </c>
       <c r="U15">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>25.91535029958233</v>
+        <v>36.31348467904437</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.08611025693940036</v>
+        <v>0.08332370199491361</v>
       </c>
       <c r="C16">
-        <v>1025.066572765967</v>
+        <v>1022.265816892118</v>
       </c>
       <c r="D16">
-        <v>1056.428572765967</v>
+        <v>1053.627816892118</v>
       </c>
       <c r="E16">
         <v>149.562</v>
@@ -2548,37 +2548,37 @@
         <v>88.2</v>
       </c>
       <c r="M16">
-        <v>3.665187400000001</v>
+        <v>2.615684400000001</v>
       </c>
       <c r="N16">
-        <v>84.5348126</v>
+        <v>85.5843156</v>
       </c>
       <c r="O16">
-        <v>18.597658772</v>
+        <v>18.828549432</v>
       </c>
       <c r="P16">
-        <v>65.93715382799999</v>
+        <v>66.75576616799999</v>
       </c>
       <c r="Q16">
-        <v>72.637153828</v>
+        <v>73.455766168</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.09724583365046555</v>
+        <v>0.09483100231966698</v>
       </c>
       <c r="T16">
         <v>0.8510768060836333</v>
       </c>
       <c r="U16">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="Y16">
-        <v>24.06425384961216</v>
+        <v>33.71966434482691</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.08597032445357013</v>
+        <v>0.08319009474729826</v>
       </c>
       <c r="C17">
-        <v>1015.640284932974</v>
+        <v>1012.637974993584</v>
       </c>
       <c r="D17">
-        <v>1058.535284932974</v>
+        <v>1055.532974993584</v>
       </c>
       <c r="E17">
         <v>161.095</v>
@@ -2630,37 +2630,37 @@
         <v>88.2</v>
       </c>
       <c r="M17">
-        <v>3.926986500000001</v>
+        <v>2.802519</v>
       </c>
       <c r="N17">
-        <v>84.2730135</v>
+        <v>85.397481</v>
       </c>
       <c r="O17">
-        <v>18.54006297</v>
+        <v>18.78744582</v>
       </c>
       <c r="P17">
-        <v>65.73295053000001</v>
+        <v>66.61003518</v>
       </c>
       <c r="Q17">
-        <v>72.43295053000001</v>
+        <v>73.31003518</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.09801696994537662</v>
+        <v>0.09564081734976265</v>
       </c>
       <c r="T17">
         <v>0.8591348759137569</v>
       </c>
       <c r="U17">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>22.45997025963802</v>
+        <v>31.47168672183846</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.08583039196773984</v>
+        <v>0.08305648749968288</v>
       </c>
       <c r="C18">
-        <v>1006.222416229512</v>
+        <v>1003.017035347011</v>
       </c>
       <c r="D18">
-        <v>1060.650416229512</v>
+        <v>1057.445035347011</v>
       </c>
       <c r="E18">
         <v>172.628</v>
@@ -2712,37 +2712,37 @@
         <v>88.2</v>
       </c>
       <c r="M18">
-        <v>4.188785600000001</v>
+        <v>2.9893536</v>
       </c>
       <c r="N18">
-        <v>84.0112144</v>
+        <v>85.2106464</v>
       </c>
       <c r="O18">
-        <v>18.482467168</v>
+        <v>18.746342208</v>
       </c>
       <c r="P18">
-        <v>65.528747232</v>
+        <v>66.464304192</v>
       </c>
       <c r="Q18">
-        <v>72.228747232</v>
+        <v>73.164304192</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.09880646662826173</v>
+        <v>0.09646991369009866</v>
       </c>
       <c r="T18">
         <v>0.8673848045493595</v>
       </c>
       <c r="U18">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>21.05622211841064</v>
+        <v>29.50470630172356</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.08569045948190962</v>
+        <v>0.08292288025206752</v>
       </c>
       <c r="C19">
-        <v>996.813017225128</v>
+        <v>993.4030355300177</v>
       </c>
       <c r="D19">
-        <v>1062.774017225128</v>
+        <v>1059.364035530018</v>
       </c>
       <c r="E19">
         <v>184.161</v>
@@ -2794,37 +2794,37 @@
         <v>88.2</v>
       </c>
       <c r="M19">
-        <v>4.450584700000001</v>
+        <v>3.1761882</v>
       </c>
       <c r="N19">
-        <v>83.7494153</v>
+        <v>85.0238118</v>
       </c>
       <c r="O19">
-        <v>18.424871366</v>
+        <v>18.705238596</v>
       </c>
       <c r="P19">
-        <v>65.32454393399999</v>
+        <v>66.318573204</v>
       </c>
       <c r="Q19">
-        <v>72.02454393399999</v>
+        <v>73.01857320400001</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.09961498732760196</v>
+        <v>0.09731898825550304</v>
       </c>
       <c r="T19">
         <v>0.8758335266460611</v>
       </c>
       <c r="U19">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>19.81762081732766</v>
+        <v>27.76913534279864</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.08555052699607936</v>
+        <v>0.08278927300445216</v>
       </c>
       <c r="C20">
-        <v>987.4121388951833</v>
+        <v>983.7960133934985</v>
       </c>
       <c r="D20">
-        <v>1064.906138895183</v>
+        <v>1061.290013393499</v>
       </c>
       <c r="E20">
         <v>195.694</v>
@@ -2876,37 +2876,37 @@
         <v>88.2</v>
       </c>
       <c r="M20">
-        <v>4.7123838</v>
+        <v>3.3630228</v>
       </c>
       <c r="N20">
-        <v>83.48761620000001</v>
+        <v>84.83697720000001</v>
       </c>
       <c r="O20">
-        <v>18.367275564</v>
+        <v>18.664134984</v>
       </c>
       <c r="P20">
-        <v>65.12034063600001</v>
+        <v>66.17284221600001</v>
       </c>
       <c r="Q20">
-        <v>71.82034063600001</v>
+        <v>72.87284221600001</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1004432280439992</v>
+        <v>0.09818877195664896</v>
       </c>
       <c r="T20">
         <v>0.8844883151353649</v>
       </c>
       <c r="U20">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>18.71664188303168</v>
+        <v>26.22640560153205</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.08541059451024913</v>
+        <v>0.08265566575683679</v>
       </c>
       <c r="C21">
-        <v>978.0198326249221</v>
+        <v>974.1960070641063</v>
       </c>
       <c r="D21">
-        <v>1067.046832624922</v>
+        <v>1063.223007064106</v>
       </c>
       <c r="E21">
         <v>207.227</v>
@@ -2958,37 +2958,37 @@
         <v>88.2</v>
       </c>
       <c r="M21">
-        <v>4.974182900000002</v>
+        <v>3.5498574</v>
       </c>
       <c r="N21">
-        <v>83.2258171</v>
+        <v>84.65014260000001</v>
       </c>
       <c r="O21">
-        <v>18.309679762</v>
+        <v>18.623031372</v>
       </c>
       <c r="P21">
-        <v>64.916137338</v>
+        <v>66.02711122800001</v>
       </c>
       <c r="Q21">
-        <v>71.616137338</v>
+        <v>72.72711122800001</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1012919191484557</v>
+        <v>0.09908003179856394</v>
       </c>
       <c r="T21">
         <v>0.8933568021058863</v>
       </c>
       <c r="U21">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>17.73155546813527</v>
+        <v>24.84606846460931</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.08527066202441887</v>
+        <v>0.08252205850922145</v>
       </c>
       <c r="C22">
-        <v>968.6361502136047</v>
+        <v>964.6030549467705</v>
       </c>
       <c r="D22">
-        <v>1069.196150213605</v>
+        <v>1065.163054946771</v>
       </c>
       <c r="E22">
         <v>218.76</v>
@@ -3040,37 +3040,37 @@
         <v>88.2</v>
       </c>
       <c r="M22">
-        <v>5.235982000000002</v>
+        <v>3.736692000000001</v>
       </c>
       <c r="N22">
-        <v>82.964018</v>
+        <v>84.463308</v>
       </c>
       <c r="O22">
-        <v>18.25208396</v>
+        <v>18.58192776</v>
       </c>
       <c r="P22">
-        <v>64.71193403999999</v>
+        <v>65.88138024</v>
       </c>
       <c r="Q22">
-        <v>71.41193403999999</v>
+        <v>72.58138024</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1021618275305236</v>
+        <v>0.09999357313652679</v>
       </c>
       <c r="T22">
         <v>0.9024470012506707</v>
       </c>
       <c r="U22">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>16.84497769472851</v>
+        <v>23.60376504137884</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.08513072953858859</v>
+        <v>0.08238845126160606</v>
       </c>
       <c r="C23">
-        <v>959.2611438786835</v>
+        <v>955.0171957272428</v>
       </c>
       <c r="D23">
-        <v>1071.354143878684</v>
+        <v>1067.110195727243</v>
       </c>
       <c r="E23">
         <v>230.293</v>
@@ -3122,37 +3122,37 @@
         <v>88.2</v>
       </c>
       <c r="M23">
-        <v>5.497781100000001</v>
+        <v>3.923526600000001</v>
       </c>
       <c r="N23">
-        <v>82.70221890000001</v>
+        <v>84.2764734</v>
       </c>
       <c r="O23">
-        <v>18.194488158</v>
+        <v>18.540824148</v>
       </c>
       <c r="P23">
-        <v>64.50773074200001</v>
+        <v>65.735649252</v>
       </c>
       <c r="Q23">
-        <v>71.20773074200001</v>
+        <v>72.435649252</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1030537589096058</v>
+        <v>0.1009302421032988</v>
       </c>
       <c r="T23">
         <v>0.9117673320193735</v>
       </c>
       <c r="U23">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>16.04283589974144</v>
+        <v>22.47977622988461</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3171,13 +3171,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.08499079705275836</v>
+        <v>0.0822548440139907</v>
       </c>
       <c r="C24">
-        <v>949.8948662600307</v>
+        <v>945.438468374664</v>
       </c>
       <c r="D24">
-        <v>1073.520866260031</v>
+        <v>1069.064468374664</v>
       </c>
       <c r="E24">
         <v>241.826</v>
@@ -3204,37 +3204,37 @@
         <v>88.2</v>
       </c>
       <c r="M24">
-        <v>5.759580200000001</v>
+        <v>4.1103612</v>
       </c>
       <c r="N24">
-        <v>82.4404198</v>
+        <v>84.0896388</v>
       </c>
       <c r="O24">
-        <v>18.136892356</v>
+        <v>18.499720536</v>
       </c>
       <c r="P24">
-        <v>64.303527444</v>
+        <v>65.589918264</v>
       </c>
       <c r="Q24">
-        <v>71.003527444</v>
+        <v>72.28991826400001</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1039685603240492</v>
+        <v>0.101890928223065</v>
       </c>
       <c r="T24">
         <v>0.9213266456282997</v>
       </c>
       <c r="U24">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>15.31361608611683</v>
+        <v>21.45796821943532</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3253,13 +3253,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.08485086456692811</v>
+        <v>0.08212123676637534</v>
       </c>
       <c r="C25">
-        <v>940.5373704242227</v>
+        <v>935.8669121441669</v>
       </c>
       <c r="D25">
-        <v>1075.696370424223</v>
+        <v>1071.025912144167</v>
       </c>
       <c r="E25">
         <v>253.3590000000001</v>
@@ -3286,37 +3286,37 @@
         <v>88.2</v>
       </c>
       <c r="M25">
-        <v>6.021379300000002</v>
+        <v>4.297195800000001</v>
       </c>
       <c r="N25">
-        <v>82.1786207</v>
+        <v>83.90280420000001</v>
       </c>
       <c r="O25">
-        <v>18.079296554</v>
+        <v>18.458616924</v>
       </c>
       <c r="P25">
-        <v>64.099324146</v>
+        <v>65.44418727600001</v>
       </c>
       <c r="Q25">
-        <v>70.799324146</v>
+        <v>72.14418727600001</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1049071228141923</v>
+        <v>0.1028765672290589</v>
       </c>
       <c r="T25">
         <v>0.931134253097198</v>
       </c>
       <c r="U25">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>14.64780669106827</v>
+        <v>20.52501307945986</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3335,13 +3335,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.08471093208109784</v>
+        <v>0.08198762951875999</v>
       </c>
       <c r="C26">
-        <v>931.1887098688686</v>
+        <v>926.3025665795047</v>
       </c>
       <c r="D26">
-        <v>1077.880709868869</v>
+        <v>1072.994566579505</v>
       </c>
       <c r="E26">
         <v>264.8920000000001</v>
@@ -3368,37 +3368,37 @@
         <v>88.2</v>
       </c>
       <c r="M26">
-        <v>6.283178400000001</v>
+        <v>4.4840304</v>
       </c>
       <c r="N26">
-        <v>81.91682160000001</v>
+        <v>83.71596960000001</v>
       </c>
       <c r="O26">
-        <v>18.021700752</v>
+        <v>18.417513312</v>
       </c>
       <c r="P26">
-        <v>63.895120848</v>
+        <v>65.29845628800001</v>
       </c>
       <c r="Q26">
-        <v>70.59512084800001</v>
+        <v>71.99845628800001</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.105870384317234</v>
+        <v>0.1038881441036315</v>
       </c>
       <c r="T26">
         <v>0.9411999554994883</v>
       </c>
       <c r="U26">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>14.03748141227376</v>
+        <v>19.66980420114904</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3417,13 +3417,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.08457099959526759</v>
+        <v>0.08185402227114461</v>
       </c>
       <c r="C27">
-        <v>921.8489385269961</v>
+        <v>916.745471515708</v>
       </c>
       <c r="D27">
-        <v>1080.073938526996</v>
+        <v>1074.970471515708</v>
       </c>
       <c r="E27">
         <v>276.4250000000001</v>
@@ -3450,37 +3450,37 @@
         <v>88.2</v>
       </c>
       <c r="M27">
-        <v>6.544977500000002</v>
+        <v>4.670865</v>
       </c>
       <c r="N27">
-        <v>81.6550225</v>
+        <v>83.529135</v>
       </c>
       <c r="O27">
-        <v>17.96410495</v>
+        <v>18.3764097</v>
       </c>
       <c r="P27">
-        <v>63.69091755</v>
+        <v>65.1527253</v>
       </c>
       <c r="Q27">
-        <v>70.39091755000001</v>
+        <v>71.8527253</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1068593327936901</v>
+        <v>0.1049266963615262</v>
       </c>
       <c r="T27">
         <v>0.9515340766325063</v>
       </c>
       <c r="U27">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>13.47598215578281</v>
+        <v>18.88301203310307</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.08475554710943733</v>
+        <v>0.08172041502352925</v>
       </c>
       <c r="C28">
-        <v>907.4253087106837</v>
+        <v>907.1956670817693</v>
       </c>
       <c r="D28">
-        <v>1077.183308710684</v>
+        <v>1076.953667081769</v>
       </c>
       <c r="E28">
         <v>287.9580000000001</v>
@@ -3532,45 +3532,45 @@
         <v>88.2</v>
       </c>
       <c r="M28">
-        <v>7.286549400000002</v>
+        <v>4.857699600000001</v>
       </c>
       <c r="N28">
-        <v>80.9134506</v>
+        <v>83.3423004</v>
       </c>
       <c r="O28">
-        <v>17.800959132</v>
+        <v>18.335306088</v>
       </c>
       <c r="P28">
-        <v>63.112491468</v>
+        <v>65.006994312</v>
       </c>
       <c r="Q28">
-        <v>69.812491468</v>
+        <v>71.70699431200001</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1078750096073477</v>
+        <v>0.1059933175993639</v>
       </c>
       <c r="T28">
         <v>0.962147498336687</v>
       </c>
       <c r="U28">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y28">
-        <v>12.10449489301479</v>
+        <v>18.15674233952219</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.08462809462360707</v>
+        <v>0.08158680777591387</v>
       </c>
       <c r="C29">
-        <v>897.886983866822</v>
+        <v>897.6531937033644</v>
       </c>
       <c r="D29">
-        <v>1079.177983866822</v>
+        <v>1078.944193703365</v>
       </c>
       <c r="E29">
         <v>299.4910000000001</v>
@@ -3614,45 +3614,45 @@
         <v>88.2</v>
       </c>
       <c r="M29">
-        <v>7.566801300000003</v>
+        <v>5.044534200000001</v>
       </c>
       <c r="N29">
-        <v>80.63319869999999</v>
+        <v>83.1554658</v>
       </c>
       <c r="O29">
-        <v>17.739303714</v>
+        <v>18.294202476</v>
       </c>
       <c r="P29">
-        <v>62.89389498599999</v>
+        <v>64.86126332400001</v>
       </c>
       <c r="Q29">
-        <v>69.593894986</v>
+        <v>71.56126332400001</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1089185131830234</v>
+        <v>0.1070891613368683</v>
       </c>
       <c r="T29">
         <v>0.9730516987176945</v>
       </c>
       <c r="U29">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y29">
-        <v>11.65618026734757</v>
+        <v>17.48427040102136</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.08450064213777683</v>
+        <v>0.08145320052829852</v>
       </c>
       <c r="C30">
-        <v>888.3560600107575</v>
+        <v>888.1180921055947</v>
       </c>
       <c r="D30">
-        <v>1081.180060010758</v>
+        <v>1080.942092105595</v>
       </c>
       <c r="E30">
         <v>311.0240000000001</v>
@@ -3696,45 +3696,45 @@
         <v>88.2</v>
       </c>
       <c r="M30">
-        <v>7.847053200000003</v>
+        <v>5.231368800000001</v>
       </c>
       <c r="N30">
-        <v>80.3529468</v>
+        <v>82.9686312</v>
       </c>
       <c r="O30">
-        <v>17.677648296</v>
+        <v>18.253098864</v>
       </c>
       <c r="P30">
-        <v>62.675298504</v>
+        <v>64.715532336</v>
       </c>
       <c r="Q30">
-        <v>69.375298504</v>
+        <v>71.415532336</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1099910029691345</v>
+        <v>0.1082154451781924</v>
       </c>
       <c r="T30">
         <v>0.9842587935537301</v>
       </c>
       <c r="U30">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y30">
-        <v>11.2398881149423</v>
+        <v>16.85983217241346</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.08437318965194657</v>
+        <v>0.08131959328068317</v>
       </c>
       <c r="C31">
-        <v>878.8325784096812</v>
+        <v>878.5904033157669</v>
       </c>
       <c r="D31">
-        <v>1083.189578409681</v>
+        <v>1082.947403315767</v>
       </c>
       <c r="E31">
         <v>322.5570000000001</v>
@@ -3778,45 +3778,45 @@
         <v>88.2</v>
       </c>
       <c r="M31">
-        <v>8.127305100000003</v>
+        <v>5.4182034</v>
       </c>
       <c r="N31">
-        <v>80.0726949</v>
+        <v>82.78179660000001</v>
       </c>
       <c r="O31">
-        <v>17.615992878</v>
+        <v>18.211995252</v>
       </c>
       <c r="P31">
-        <v>62.456702022</v>
+        <v>64.569801348</v>
       </c>
       <c r="Q31">
-        <v>69.156702022</v>
+        <v>71.269801348</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.111093703735136</v>
+        <v>0.1093734553249059</v>
       </c>
       <c r="T31">
         <v>0.9957815812020483</v>
       </c>
       <c r="U31">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y31">
-        <v>10.85230576615119</v>
+        <v>16.27845864922679</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3827,13 +3827,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.08424573716611633</v>
+        <v>0.08118598603306779</v>
       </c>
       <c r="C32">
-        <v>869.3165806381571</v>
+        <v>869.0701686662026</v>
       </c>
       <c r="D32">
-        <v>1085.206580638157</v>
+        <v>1084.960168666203</v>
       </c>
       <c r="E32">
         <v>334.0900000000001</v>
@@ -3860,45 +3860,45 @@
         <v>88.2</v>
       </c>
       <c r="M32">
-        <v>8.407557000000002</v>
+        <v>5.605038</v>
       </c>
       <c r="N32">
-        <v>79.79244300000001</v>
+        <v>82.59496200000001</v>
       </c>
       <c r="O32">
-        <v>17.55433746</v>
+        <v>18.17089164</v>
       </c>
       <c r="P32">
-        <v>62.23810554000001</v>
+        <v>64.42407036</v>
       </c>
       <c r="Q32">
-        <v>68.93810554000001</v>
+        <v>71.12407036</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.112227910237309</v>
+        <v>0.1105645514758111</v>
       </c>
       <c r="T32">
         <v>1.007633591354604</v>
       </c>
       <c r="U32">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y32">
-        <v>10.49056224061282</v>
+        <v>15.73584336091923</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.08465024468028606</v>
+        <v>0.08105237878545243</v>
       </c>
       <c r="C33">
-        <v>851.4077976858523</v>
+        <v>859.5574297970734</v>
       </c>
       <c r="D33">
-        <v>1078.830797685853</v>
+        <v>1086.980429797074</v>
       </c>
       <c r="E33">
         <v>345.6230000000001</v>
@@ -3942,45 +3942,45 @@
         <v>88.2</v>
       </c>
       <c r="M33">
-        <v>9.474359500000004</v>
+        <v>5.791872600000001</v>
       </c>
       <c r="N33">
-        <v>78.7256405</v>
+        <v>82.4081274</v>
       </c>
       <c r="O33">
-        <v>17.31964091</v>
+        <v>18.129788028</v>
       </c>
       <c r="P33">
-        <v>61.40599958999999</v>
+        <v>64.278339372</v>
       </c>
       <c r="Q33">
-        <v>68.10599959</v>
+        <v>70.97833937200001</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1133949922902697</v>
+        <v>0.1117901721528296</v>
       </c>
       <c r="T33">
         <v>1.019829138033321</v>
       </c>
       <c r="U33">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y33">
-        <v>9.309336425327745</v>
+        <v>15.22823551056699</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.08453995219445583</v>
+        <v>0.08091877153783707</v>
       </c>
       <c r="C34">
-        <v>841.6057696558414</v>
+        <v>850.0522286592786</v>
       </c>
       <c r="D34">
-        <v>1080.561769655842</v>
+        <v>1089.008228659279</v>
       </c>
       <c r="E34">
         <v>357.1560000000001</v>
@@ -4024,45 +4024,45 @@
         <v>88.2</v>
       </c>
       <c r="M34">
-        <v>9.779984000000002</v>
+        <v>5.978707200000001</v>
       </c>
       <c r="N34">
-        <v>78.420016</v>
+        <v>82.2212928</v>
       </c>
       <c r="O34">
-        <v>17.25240352</v>
+        <v>18.088684416</v>
       </c>
       <c r="P34">
-        <v>61.16761248</v>
+        <v>64.13260838400001</v>
       </c>
       <c r="Q34">
-        <v>67.86761248000001</v>
+        <v>70.83260838400001</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1145964002859645</v>
+        <v>0.1130518404968192</v>
       </c>
       <c r="T34">
         <v>1.032383377261412</v>
       </c>
       <c r="U34">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y34">
-        <v>9.018419662036255</v>
+        <v>14.75235315086178</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4073,13 +4073,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.08442965970862555</v>
+        <v>0.0807851642902217</v>
       </c>
       <c r="C35">
-        <v>831.8093052029282</v>
+        <v>840.5546075173439</v>
       </c>
       <c r="D35">
-        <v>1082.298305202928</v>
+        <v>1091.043607517344</v>
       </c>
       <c r="E35">
         <v>368.6890000000001</v>
@@ -4106,45 +4106,45 @@
         <v>88.2</v>
       </c>
       <c r="M35">
-        <v>10.0856085</v>
+        <v>6.165541800000001</v>
       </c>
       <c r="N35">
-        <v>78.1143915</v>
+        <v>82.0344582</v>
       </c>
       <c r="O35">
-        <v>17.18516613</v>
+        <v>18.047580804</v>
       </c>
       <c r="P35">
-        <v>60.92922537</v>
+        <v>63.986877396</v>
       </c>
       <c r="Q35">
-        <v>67.62922537</v>
+        <v>70.686877396</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1158336712069038</v>
+        <v>0.1143511705824205</v>
       </c>
       <c r="T35">
         <v>1.045312369899297</v>
       </c>
       <c r="U35">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y35">
-        <v>8.745134217732126</v>
+        <v>14.30531214629021</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4155,13 +4155,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.08431936722279532</v>
+        <v>0.08065155704260632</v>
       </c>
       <c r="C36">
-        <v>822.018431193417</v>
+        <v>831.0646089523611</v>
       </c>
       <c r="D36">
-        <v>1084.040431193417</v>
+        <v>1093.086608952361</v>
       </c>
       <c r="E36">
         <v>380.2220000000001</v>
@@ -4188,45 +4188,45 @@
         <v>88.2</v>
       </c>
       <c r="M36">
-        <v>10.391233</v>
+        <v>6.352376400000001</v>
       </c>
       <c r="N36">
-        <v>77.808767</v>
+        <v>81.84762360000001</v>
       </c>
       <c r="O36">
-        <v>17.11792874</v>
+        <v>18.006477192</v>
       </c>
       <c r="P36">
-        <v>60.69083826000001</v>
+        <v>63.841146408</v>
       </c>
       <c r="Q36">
-        <v>67.39083826000001</v>
+        <v>70.541146408</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1171084351860535</v>
+        <v>0.1156898743069793</v>
       </c>
       <c r="T36">
         <v>1.058633150192875</v>
       </c>
       <c r="U36">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y36">
-        <v>8.487924387798827</v>
+        <v>13.88456767139932</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4237,13 +4237,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.08420907473696505</v>
+        <v>0.08095474979499097</v>
       </c>
       <c r="C37">
-        <v>812.233174666875</v>
+        <v>814.906431437803</v>
       </c>
       <c r="D37">
-        <v>1085.788174666875</v>
+        <v>1088.461431437803</v>
       </c>
       <c r="E37">
         <v>391.7550000000001</v>
@@ -4270,45 +4270,45 @@
         <v>88.2</v>
       </c>
       <c r="M37">
-        <v>10.6968575</v>
+        <v>7.185059000000002</v>
       </c>
       <c r="N37">
-        <v>77.5031425</v>
+        <v>81.01494100000001</v>
       </c>
       <c r="O37">
-        <v>17.05069135</v>
+        <v>17.82328702</v>
       </c>
       <c r="P37">
-        <v>60.45245115</v>
+        <v>63.19165398000001</v>
       </c>
       <c r="Q37">
-        <v>67.15245115</v>
+        <v>69.89165398</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1184224226722539</v>
+        <v>0.1170697689153707</v>
       </c>
       <c r="T37">
         <v>1.072363800649333</v>
       </c>
       <c r="U37">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y37">
-        <v>8.245412262433145</v>
+        <v>12.27547331204935</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4319,13 +4319,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.0840987822511348</v>
+        <v>0.08083362254737562</v>
       </c>
       <c r="C38">
-        <v>802.4535628375274</v>
+        <v>805.216513510687</v>
       </c>
       <c r="D38">
-        <v>1087.541562837528</v>
+        <v>1090.304513510687</v>
       </c>
       <c r="E38">
         <v>403.2880000000001</v>
@@ -4352,45 +4352,45 @@
         <v>88.2</v>
       </c>
       <c r="M38">
-        <v>11.002482</v>
+        <v>7.3903464</v>
       </c>
       <c r="N38">
-        <v>77.197518</v>
+        <v>80.8096536</v>
       </c>
       <c r="O38">
-        <v>16.98345396</v>
+        <v>17.778123792</v>
       </c>
       <c r="P38">
-        <v>60.21406404</v>
+        <v>63.031529808</v>
       </c>
       <c r="Q38">
-        <v>66.91406404</v>
+        <v>69.731529808</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1197774722673981</v>
+        <v>0.1184927852302744</v>
       </c>
       <c r="T38">
         <v>1.086523533932554</v>
       </c>
       <c r="U38">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V38">
         <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y38">
-        <v>8.016373032921116</v>
+        <v>11.9344879422702</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4401,13 +4401,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.08430594976530455</v>
+        <v>0.08071249529976025</v>
       </c>
       <c r="C39">
-        <v>787.6317494877208</v>
+        <v>795.5328479195998</v>
       </c>
       <c r="D39">
-        <v>1084.252749487721</v>
+        <v>1092.1538479196</v>
       </c>
       <c r="E39">
         <v>414.8210000000001</v>
@@ -4434,45 +4434,45 @@
         <v>88.2</v>
       </c>
       <c r="M39">
-        <v>11.7774996</v>
+        <v>7.595633800000001</v>
       </c>
       <c r="N39">
-        <v>76.4225004</v>
+        <v>80.6043662</v>
       </c>
       <c r="O39">
-        <v>16.812950088</v>
+        <v>17.732960564</v>
       </c>
       <c r="P39">
-        <v>59.609550312</v>
+        <v>62.87140563600001</v>
       </c>
       <c r="Q39">
-        <v>66.309550312</v>
+        <v>69.57140563600001</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1211755393100072</v>
+        <v>0.1199609766662861</v>
       </c>
       <c r="T39">
         <v>1.101132782558101</v>
       </c>
       <c r="U39">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V39">
         <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y39">
-        <v>7.488856123586706</v>
+        <v>11.61193421410074</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4483,13 +4483,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.08420423727947431</v>
+        <v>0.0805913680521449</v>
       </c>
       <c r="C40">
-        <v>777.7109601753143</v>
+        <v>785.8554665335428</v>
       </c>
       <c r="D40">
-        <v>1085.864960175315</v>
+        <v>1094.009466533543</v>
       </c>
       <c r="E40">
         <v>426.3540000000001</v>
@@ -4516,45 +4516,45 @@
         <v>88.2</v>
       </c>
       <c r="M40">
-        <v>12.0958104</v>
+        <v>7.800921200000001</v>
       </c>
       <c r="N40">
-        <v>76.1041896</v>
+        <v>80.3990788</v>
       </c>
       <c r="O40">
-        <v>16.742921712</v>
+        <v>17.687797336</v>
       </c>
       <c r="P40">
-        <v>59.361267888</v>
+        <v>62.711281464</v>
       </c>
       <c r="Q40">
-        <v>66.061267888</v>
+        <v>69.411281464</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1226187052894747</v>
+        <v>0.1214765291163627</v>
       </c>
       <c r="T40">
         <v>1.116213297268342</v>
       </c>
       <c r="U40">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V40">
         <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y40">
-        <v>7.291780962439688</v>
+        <v>11.30635699794019</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4565,13 +4565,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.08410252479364405</v>
+        <v>0.08047024080452952</v>
       </c>
       <c r="C41">
-        <v>767.7949724996622</v>
+        <v>776.1844014384747</v>
       </c>
       <c r="D41">
-        <v>1087.481972499662</v>
+        <v>1095.871401438475</v>
       </c>
       <c r="E41">
         <v>437.8870000000001</v>
@@ -4598,45 +4598,45 @@
         <v>88.2</v>
       </c>
       <c r="M41">
-        <v>12.4141212</v>
+        <v>8.006208600000001</v>
       </c>
       <c r="N41">
-        <v>75.78587880000001</v>
+        <v>80.19379140000001</v>
       </c>
       <c r="O41">
-        <v>16.672893336</v>
+        <v>17.642634108</v>
       </c>
       <c r="P41">
-        <v>59.112985464</v>
+        <v>62.55115729200001</v>
       </c>
       <c r="Q41">
-        <v>65.81298546400001</v>
+        <v>69.25115729200002</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1241091881863017</v>
+        <v>0.1230417718107041</v>
       </c>
       <c r="T41">
         <v>1.131788255083837</v>
       </c>
       <c r="U41">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V41">
         <v>0.22</v>
       </c>
       <c r="W41">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y41">
-        <v>7.10481221981303</v>
+        <v>11.01645040824942</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4647,13 +4647,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.0840008123078138</v>
+        <v>0.08034911355691417</v>
       </c>
       <c r="C42">
-        <v>757.8838079437812</v>
+        <v>766.5196849391591</v>
       </c>
       <c r="D42">
-        <v>1089.103807943781</v>
+        <v>1097.739684939159</v>
       </c>
       <c r="E42">
         <v>449.4200000000001</v>
@@ -4680,45 +4680,45 @@
         <v>88.2</v>
       </c>
       <c r="M42">
-        <v>12.732432</v>
+        <v>8.211496000000002</v>
       </c>
       <c r="N42">
-        <v>75.467568</v>
+        <v>79.98850400000001</v>
       </c>
       <c r="O42">
-        <v>16.60286496</v>
+        <v>17.59747088</v>
       </c>
       <c r="P42">
-        <v>58.86470303999999</v>
+        <v>62.39103312</v>
       </c>
       <c r="Q42">
-        <v>65.56470304</v>
+        <v>69.09103312000001</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1256493538463563</v>
+        <v>0.1246591892615236</v>
       </c>
       <c r="T42">
         <v>1.147882378159849</v>
       </c>
       <c r="U42">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V42">
         <v>0.22</v>
       </c>
       <c r="W42">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y42">
-        <v>6.927191914317703</v>
+        <v>10.74103914804318</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4729,13 +4729,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.08389909982198354</v>
+        <v>0.08093154630929879</v>
       </c>
       <c r="C43">
-        <v>747.9774881190369</v>
+        <v>746.0610149090826</v>
       </c>
       <c r="D43">
-        <v>1090.730488119037</v>
+        <v>1088.814014909083</v>
       </c>
       <c r="E43">
         <v>460.9530000000001</v>
@@ -4762,45 +4762,45 @@
         <v>88.2</v>
       </c>
       <c r="M43">
-        <v>13.0507428</v>
+        <v>9.45706</v>
       </c>
       <c r="N43">
-        <v>75.14925719999999</v>
+        <v>78.74294</v>
       </c>
       <c r="O43">
-        <v>16.532836584</v>
+        <v>17.3234468</v>
       </c>
       <c r="P43">
-        <v>58.616420616</v>
+        <v>61.41949320000001</v>
       </c>
       <c r="Q43">
-        <v>65.316420616</v>
+        <v>68.11949320000001</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1272417285118365</v>
+        <v>0.1263314344225403</v>
       </c>
       <c r="T43">
         <v>1.164522064729963</v>
       </c>
       <c r="U43">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V43">
         <v>0.22</v>
       </c>
       <c r="W43">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y43">
-        <v>6.75823601396849</v>
+        <v>9.32636569927652</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4811,13 +4811,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.0837973873361533</v>
+        <v>0.08082757906168343</v>
       </c>
       <c r="C44">
-        <v>738.0760347661009</v>
+        <v>736.1106351763996</v>
       </c>
       <c r="D44">
-        <v>1092.362034766101</v>
+        <v>1090.3966351764</v>
       </c>
       <c r="E44">
         <v>472.4860000000001</v>
@@ -4844,45 +4844,45 @@
         <v>88.2</v>
       </c>
       <c r="M44">
-        <v>13.3690536</v>
+        <v>9.687720000000001</v>
       </c>
       <c r="N44">
-        <v>74.8309464</v>
+        <v>78.51228</v>
       </c>
       <c r="O44">
-        <v>16.462808208</v>
+        <v>17.2727016</v>
       </c>
       <c r="P44">
-        <v>58.368138192</v>
+        <v>61.2395784</v>
       </c>
       <c r="Q44">
-        <v>65.06813819200001</v>
+        <v>67.9395784</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1288890126485402</v>
+        <v>0.128061343209799</v>
       </c>
       <c r="T44">
         <v>1.181735533595597</v>
       </c>
       <c r="U44">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V44">
         <v>0.22</v>
       </c>
       <c r="W44">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y44">
-        <v>6.597325632683527</v>
+        <v>9.104309373103268</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4893,13 +4893,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.08369567485032306</v>
+        <v>0.08072361181406806</v>
       </c>
       <c r="C45">
-        <v>728.1794697559228</v>
+        <v>726.1648629024835</v>
       </c>
       <c r="D45">
-        <v>1093.998469755923</v>
+        <v>1091.983862902484</v>
       </c>
       <c r="E45">
         <v>484.0190000000001</v>
@@ -4926,45 +4926,45 @@
         <v>88.2</v>
       </c>
       <c r="M45">
-        <v>13.6873644</v>
+        <v>9.918380000000001</v>
       </c>
       <c r="N45">
-        <v>74.5126356</v>
+        <v>78.28162</v>
       </c>
       <c r="O45">
-        <v>16.392779832</v>
+        <v>17.2219564</v>
       </c>
       <c r="P45">
-        <v>58.11985576799999</v>
+        <v>61.05966360000001</v>
       </c>
       <c r="Q45">
-        <v>64.819855768</v>
+        <v>67.75966360000001</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1305940962286369</v>
+        <v>0.1298519505509966</v>
       </c>
       <c r="T45">
         <v>1.199552983824939</v>
       </c>
       <c r="U45">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V45">
         <v>0.22</v>
       </c>
       <c r="W45">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y45">
-        <v>6.443899455179259</v>
+        <v>8.89258124814738</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4975,13 +4975,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.08410876236449281</v>
+        <v>0.08061964456645271</v>
       </c>
       <c r="C46">
-        <v>710.0306697804297</v>
+        <v>716.2237182371041</v>
       </c>
       <c r="D46">
-        <v>1087.38266978043</v>
+        <v>1093.575718237104</v>
       </c>
       <c r="E46">
         <v>495.5520000000001</v>
@@ -5008,45 +5008,45 @@
         <v>88.2</v>
       </c>
       <c r="M46">
-        <v>14.7668532</v>
+        <v>10.14904</v>
       </c>
       <c r="N46">
-        <v>73.4331468</v>
+        <v>78.05096</v>
       </c>
       <c r="O46">
-        <v>16.155292296</v>
+        <v>17.1712112</v>
       </c>
       <c r="P46">
-        <v>57.277854504</v>
+        <v>60.8797488</v>
       </c>
       <c r="Q46">
-        <v>63.97785450400001</v>
+        <v>67.5797488</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.13236007565088</v>
+        <v>0.1317065081543798</v>
       </c>
       <c r="T46">
         <v>1.218006771562471</v>
       </c>
       <c r="U46">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V46">
         <v>0.22</v>
       </c>
       <c r="W46">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y46">
-        <v>5.97283651468818</v>
+        <v>8.690477128871303</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5057,13 +5057,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.08401874987866255</v>
+        <v>0.08051567731883735</v>
       </c>
       <c r="C47">
-        <v>699.9324368690932</v>
+        <v>706.2872214476972</v>
       </c>
       <c r="D47">
-        <v>1088.817436869093</v>
+        <v>1095.172221447697</v>
       </c>
       <c r="E47">
         <v>507.0850000000002</v>
@@ -5090,45 +5090,45 @@
         <v>88.2</v>
       </c>
       <c r="M47">
-        <v>15.1024635</v>
+        <v>10.3797</v>
       </c>
       <c r="N47">
-        <v>73.0975365</v>
+        <v>77.8203</v>
       </c>
       <c r="O47">
-        <v>16.08145803</v>
+        <v>17.120466</v>
       </c>
       <c r="P47">
-        <v>57.01607847</v>
+        <v>60.699834</v>
       </c>
       <c r="Q47">
-        <v>63.71607847000001</v>
+        <v>67.399834</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1341902725066592</v>
+        <v>0.1336285042160679</v>
       </c>
       <c r="T47">
         <v>1.237131606126823</v>
       </c>
       <c r="U47">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V47">
         <v>0.22</v>
       </c>
       <c r="W47">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y47">
-        <v>5.840106814361775</v>
+        <v>8.497355414896383</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5139,13 +5139,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.0839287373928323</v>
+        <v>0.08041171007122198</v>
       </c>
       <c r="C48">
-        <v>689.8379952199224</v>
+        <v>696.3553929202252</v>
       </c>
       <c r="D48">
-        <v>1090.255995219923</v>
+        <v>1096.773392920225</v>
       </c>
       <c r="E48">
         <v>518.6180000000002</v>
@@ -5172,45 +5172,45 @@
         <v>88.2</v>
       </c>
       <c r="M48">
-        <v>15.43807380000001</v>
+        <v>10.61036</v>
       </c>
       <c r="N48">
-        <v>72.7619262</v>
+        <v>77.58964</v>
       </c>
       <c r="O48">
-        <v>16.007623764</v>
+        <v>17.0697208</v>
       </c>
       <c r="P48">
-        <v>56.754302436</v>
+        <v>60.5199192</v>
       </c>
       <c r="Q48">
-        <v>63.45430243600001</v>
+        <v>67.21991920000001</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1360882544311709</v>
+        <v>0.1356216853170777</v>
       </c>
       <c r="T48">
         <v>1.256964767897261</v>
       </c>
       <c r="U48">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V48">
         <v>0.22</v>
       </c>
       <c r="W48">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y48">
-        <v>5.713147970571302</v>
+        <v>8.312630297181244</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5221,13 +5221,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.08383872490700205</v>
+        <v>0.08030774282360664</v>
       </c>
       <c r="C49">
-        <v>679.7473598799777</v>
+        <v>686.4282531600434</v>
       </c>
       <c r="D49">
-        <v>1091.698359879978</v>
+        <v>1098.379253160044</v>
       </c>
       <c r="E49">
         <v>530.1510000000002</v>
@@ -5254,45 +5254,45 @@
         <v>88.2</v>
       </c>
       <c r="M49">
-        <v>15.77368410000001</v>
+        <v>10.84102</v>
       </c>
       <c r="N49">
-        <v>72.42631589999999</v>
+        <v>77.35898</v>
       </c>
       <c r="O49">
-        <v>15.933789498</v>
+        <v>17.0189756</v>
       </c>
       <c r="P49">
-        <v>56.492526402</v>
+        <v>60.3400044</v>
       </c>
       <c r="Q49">
-        <v>63.192526402</v>
+        <v>67.0400044</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1380578583150982</v>
+        <v>0.1376900807992578</v>
       </c>
       <c r="T49">
         <v>1.277546350866585</v>
       </c>
       <c r="U49">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V49">
         <v>0.22</v>
       </c>
       <c r="W49">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y49">
-        <v>5.591591630771911</v>
+        <v>8.135765822773132</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5303,13 +5303,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.08374871242117179</v>
+        <v>0.08020377557599126</v>
       </c>
       <c r="C50">
-        <v>669.6605459760513</v>
+        <v>676.5058227927775</v>
       </c>
       <c r="D50">
-        <v>1093.144545976051</v>
+        <v>1099.989822792778</v>
       </c>
       <c r="E50">
         <v>541.6840000000001</v>
@@ -5336,45 +5336,45 @@
         <v>88.2</v>
       </c>
       <c r="M50">
-        <v>16.1092944</v>
+        <v>11.07168</v>
       </c>
       <c r="N50">
-        <v>72.09070560000001</v>
+        <v>77.12832</v>
       </c>
       <c r="O50">
-        <v>15.859955232</v>
+        <v>16.9682304</v>
       </c>
       <c r="P50">
-        <v>56.230750368</v>
+        <v>60.16008960000001</v>
       </c>
       <c r="Q50">
-        <v>62.93075036800001</v>
+        <v>66.86008960000001</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1401032161945611</v>
+        <v>0.1398380299538294</v>
       </c>
       <c r="T50">
         <v>1.298919533180882</v>
       </c>
       <c r="U50">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V50">
         <v>0.22</v>
       </c>
       <c r="W50">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y50">
-        <v>5.475100138464165</v>
+        <v>7.966270701465361</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5385,13 +5385,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.08365869993534153</v>
+        <v>0.08052022832837591</v>
       </c>
       <c r="C51">
-        <v>659.5775687151969</v>
+        <v>660.0852393745819</v>
       </c>
       <c r="D51">
-        <v>1094.594568715197</v>
+        <v>1095.102239374582</v>
       </c>
       <c r="E51">
         <v>553.2170000000001</v>
@@ -5418,45 +5418,45 @@
         <v>88.2</v>
       </c>
       <c r="M51">
-        <v>16.4449047</v>
+        <v>11.9239687</v>
       </c>
       <c r="N51">
-        <v>71.75509529999999</v>
+        <v>76.2760313</v>
       </c>
       <c r="O51">
-        <v>15.786120966</v>
+        <v>16.780726886</v>
       </c>
       <c r="P51">
-        <v>55.96897433399999</v>
+        <v>59.495304414</v>
       </c>
       <c r="Q51">
-        <v>62.668974334</v>
+        <v>66.19530441400001</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1422287841869442</v>
+        <v>0.1420702124085802</v>
       </c>
       <c r="T51">
         <v>1.321130879507504</v>
       </c>
       <c r="U51">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V51">
         <v>0.22</v>
       </c>
       <c r="W51">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y51">
-        <v>5.363363400944487</v>
+        <v>7.396866112203061</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5467,13 +5467,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.08356868744951128</v>
+        <v>0.08042484108076053</v>
       </c>
       <c r="C52">
-        <v>649.498443385261</v>
+        <v>650.0209075203957</v>
       </c>
       <c r="D52">
-        <v>1096.048443385261</v>
+        <v>1096.570907520396</v>
       </c>
       <c r="E52">
         <v>564.7500000000001</v>
@@ -5500,45 +5500,45 @@
         <v>88.2</v>
       </c>
       <c r="M52">
-        <v>16.780515</v>
+        <v>12.167315</v>
       </c>
       <c r="N52">
-        <v>71.41948499999999</v>
+        <v>76.032685</v>
       </c>
       <c r="O52">
-        <v>15.7122867</v>
+        <v>16.7271907</v>
       </c>
       <c r="P52">
-        <v>55.70719829999999</v>
+        <v>59.3054943</v>
       </c>
       <c r="Q52">
-        <v>62.4071983</v>
+        <v>66.00549430000001</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1444393748990226</v>
+        <v>0.1443916821615211</v>
       </c>
       <c r="T52">
         <v>1.344230679687191</v>
       </c>
       <c r="U52">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V52">
         <v>0.22</v>
       </c>
       <c r="W52">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y52">
-        <v>5.256096132925597</v>
+        <v>7.248928789959</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5549,13 +5549,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.08347867496368103</v>
+        <v>0.08032945383314517</v>
       </c>
       <c r="C53">
-        <v>639.4231853554228</v>
+        <v>639.9605202893064</v>
       </c>
       <c r="D53">
-        <v>1097.506185355423</v>
+        <v>1098.043520289307</v>
       </c>
       <c r="E53">
         <v>576.2830000000001</v>
@@ -5582,45 +5582,45 @@
         <v>88.2</v>
       </c>
       <c r="M53">
-        <v>17.1161253</v>
+        <v>12.4106613</v>
       </c>
       <c r="N53">
-        <v>71.0838747</v>
+        <v>75.7893387</v>
       </c>
       <c r="O53">
-        <v>15.638452434</v>
+        <v>16.673654514</v>
       </c>
       <c r="P53">
-        <v>55.44542226599999</v>
+        <v>59.115684186</v>
       </c>
       <c r="Q53">
-        <v>62.145422266</v>
+        <v>65.815684186</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1467401938034307</v>
+        <v>0.1468079057819289</v>
       </c>
       <c r="T53">
         <v>1.368273328853805</v>
       </c>
       <c r="U53">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V53">
         <v>0.22</v>
       </c>
       <c r="W53">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y53">
-        <v>5.15303542443686</v>
+        <v>7.106792931332352</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5631,13 +5631,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.08338866247785078</v>
+        <v>0.0802340665855298</v>
       </c>
       <c r="C54">
-        <v>629.351810076733</v>
+        <v>629.9040935946871</v>
       </c>
       <c r="D54">
-        <v>1098.967810076733</v>
+        <v>1099.520093594687</v>
       </c>
       <c r="E54">
         <v>587.8160000000001</v>
@@ -5664,45 +5664,45 @@
         <v>88.2</v>
       </c>
       <c r="M54">
-        <v>17.4517356</v>
+        <v>12.6540076</v>
       </c>
       <c r="N54">
-        <v>70.7482644</v>
+        <v>75.5459924</v>
       </c>
       <c r="O54">
-        <v>15.564618168</v>
+        <v>16.620118328</v>
       </c>
       <c r="P54">
-        <v>55.183646232</v>
+        <v>58.925874072</v>
       </c>
       <c r="Q54">
-        <v>61.883646232</v>
+        <v>65.625874072</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1491368801621891</v>
+        <v>0.1493248053865204</v>
       </c>
       <c r="T54">
         <v>1.393317755069027</v>
       </c>
       <c r="U54">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V54">
         <v>0.22</v>
       </c>
       <c r="W54">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y54">
-        <v>5.053938589351536</v>
+        <v>6.970123836499038</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5713,13 +5713,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.08329864999202052</v>
+        <v>0.08013867933791445</v>
       </c>
       <c r="C55">
-        <v>619.2843330826616</v>
+        <v>619.8516434356217</v>
       </c>
       <c r="D55">
-        <v>1100.433333082662</v>
+        <v>1101.000643435622</v>
       </c>
       <c r="E55">
         <v>599.3490000000002</v>
@@ -5746,45 +5746,45 @@
         <v>88.2</v>
       </c>
       <c r="M55">
-        <v>17.78734590000001</v>
+        <v>12.8973539</v>
       </c>
       <c r="N55">
-        <v>70.4126541</v>
+        <v>75.3026461</v>
       </c>
       <c r="O55">
-        <v>15.490783902</v>
+        <v>16.566582142</v>
       </c>
       <c r="P55">
-        <v>54.921870198</v>
+        <v>58.736063958</v>
       </c>
       <c r="Q55">
-        <v>61.621870198</v>
+        <v>65.43606395800001</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1516355531745117</v>
+        <v>0.1519488071019456</v>
       </c>
       <c r="T55">
         <v>1.419427901548727</v>
       </c>
       <c r="U55">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V55">
         <v>0.22</v>
       </c>
       <c r="W55">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y55">
-        <v>4.958581257476979</v>
+        <v>6.838612065999055</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5795,13 +5795,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.08320863750619026</v>
+        <v>0.08004329209029908</v>
       </c>
       <c r="C56">
-        <v>609.2207699896478</v>
+        <v>609.8031858974855</v>
       </c>
       <c r="D56">
-        <v>1101.902769989648</v>
+        <v>1102.485185897486</v>
       </c>
       <c r="E56">
         <v>610.8820000000002</v>
@@ -5828,45 +5828,45 @@
         <v>88.2</v>
       </c>
       <c r="M56">
-        <v>18.1229562</v>
+        <v>13.1407002</v>
       </c>
       <c r="N56">
-        <v>70.0770438</v>
+        <v>75.05929980000001</v>
       </c>
       <c r="O56">
-        <v>15.416949636</v>
+        <v>16.513045956</v>
       </c>
       <c r="P56">
-        <v>54.660094164</v>
+        <v>58.54625384400001</v>
       </c>
       <c r="Q56">
-        <v>61.360094164</v>
+        <v>65.24625384400001</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.1542428641438919</v>
+        <v>0.1546868958484763</v>
       </c>
       <c r="T56">
         <v>1.446673271788414</v>
       </c>
       <c r="U56">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V56">
         <v>0.22</v>
       </c>
       <c r="W56">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y56">
-        <v>4.866755678634812</v>
+        <v>6.711971101813889</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5877,13 +5877,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.08311862502036002</v>
+        <v>0.07994790484268373</v>
       </c>
       <c r="C57">
-        <v>599.1611364976535</v>
+        <v>599.7587371525245</v>
       </c>
       <c r="D57">
-        <v>1103.376136497654</v>
+        <v>1103.973737152525</v>
       </c>
       <c r="E57">
         <v>622.4150000000002</v>
@@ -5910,45 +5910,45 @@
         <v>88.2</v>
       </c>
       <c r="M57">
-        <v>18.45856650000001</v>
+        <v>13.3840465</v>
       </c>
       <c r="N57">
-        <v>69.7414335</v>
+        <v>74.81595350000001</v>
       </c>
       <c r="O57">
-        <v>15.34311537</v>
+        <v>16.45950977</v>
       </c>
       <c r="P57">
-        <v>54.39831813</v>
+        <v>58.35644373000001</v>
       </c>
       <c r="Q57">
-        <v>61.09831813</v>
+        <v>65.05644373000001</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1569660556008</v>
+        <v>0.1575466774281861</v>
       </c>
       <c r="T57">
         <v>1.475129547372087</v>
       </c>
       <c r="U57">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V57">
         <v>0.22</v>
       </c>
       <c r="W57">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y57">
-        <v>4.778269211750542</v>
+        <v>6.589935263599091</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5959,13 +5959,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.08302861253452977</v>
+        <v>0.07985251759506835</v>
       </c>
       <c r="C58">
-        <v>589.1054483907246</v>
+        <v>589.7183134604463</v>
       </c>
       <c r="D58">
-        <v>1104.853448390725</v>
+        <v>1105.466313460447</v>
       </c>
       <c r="E58">
         <v>633.9480000000002</v>
@@ -5992,45 +5992,45 @@
         <v>88.2</v>
       </c>
       <c r="M58">
-        <v>18.79417680000001</v>
+        <v>13.6273928</v>
       </c>
       <c r="N58">
-        <v>69.4058232</v>
+        <v>74.57260719999999</v>
       </c>
       <c r="O58">
-        <v>15.269281104</v>
+        <v>16.405973584</v>
       </c>
       <c r="P58">
-        <v>54.136542096</v>
+        <v>58.166633616</v>
       </c>
       <c r="Q58">
-        <v>60.836542096</v>
+        <v>64.866633616</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1598130284875676</v>
+        <v>0.1605364490797008</v>
       </c>
       <c r="T58">
         <v>1.504879290027745</v>
       </c>
       <c r="U58">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V58">
         <v>0.22</v>
       </c>
       <c r="W58">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y58">
-        <v>4.692942975826426</v>
+        <v>6.472257848177677</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6041,13 +6041,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.08293860004869952</v>
+        <v>0.08042403034745298</v>
       </c>
       <c r="C59">
-        <v>579.0537215375531</v>
+        <v>569.3024071854803</v>
       </c>
       <c r="D59">
-        <v>1106.334721537553</v>
+        <v>1096.583407185481</v>
       </c>
       <c r="E59">
         <v>645.4810000000002</v>
@@ -6074,37 +6074,37 @@
         <v>88.2</v>
       </c>
       <c r="M59">
-        <v>19.12978710000001</v>
+        <v>14.8568106</v>
       </c>
       <c r="N59">
-        <v>69.0702129</v>
+        <v>73.3431894</v>
       </c>
       <c r="O59">
-        <v>15.195446838</v>
+        <v>16.135501668</v>
       </c>
       <c r="P59">
-        <v>53.874766062</v>
+        <v>57.207687732</v>
       </c>
       <c r="Q59">
-        <v>60.574766062</v>
+        <v>63.907687732</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.1627924187179059</v>
+        <v>0.1636652798777977</v>
       </c>
       <c r="T59">
         <v>1.536012741644131</v>
       </c>
       <c r="U59">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V59">
         <v>0.22</v>
       </c>
       <c r="W59">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>4.610610642917191</v>
+        <v>5.936671226057091</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6123,13 +6123,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.08284858756286925</v>
+        <v>0.08034034309983762</v>
       </c>
       <c r="C60">
-        <v>569.0059718920448</v>
+        <v>559.0612090423359</v>
       </c>
       <c r="D60">
-        <v>1107.819971892045</v>
+        <v>1097.875209042336</v>
       </c>
       <c r="E60">
         <v>657.0140000000001</v>
@@ -6156,37 +6156,37 @@
         <v>88.2</v>
       </c>
       <c r="M60">
-        <v>19.4653974</v>
+        <v>15.1174564</v>
       </c>
       <c r="N60">
-        <v>68.7346026</v>
+        <v>73.08254360000001</v>
       </c>
       <c r="O60">
-        <v>15.121612572</v>
+        <v>16.078159592</v>
       </c>
       <c r="P60">
-        <v>53.612990028</v>
+        <v>57.004384008</v>
       </c>
       <c r="Q60">
-        <v>60.312990028</v>
+        <v>63.70438400800001</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.1659136846734982</v>
+        <v>0.166943102618661</v>
       </c>
       <c r="T60">
         <v>1.568628738575583</v>
       </c>
       <c r="U60">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V60">
         <v>0.22</v>
       </c>
       <c r="W60">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>4.531117355970343</v>
+        <v>5.834314825607832</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6205,13 +6205,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.09900363507703899</v>
+        <v>0.08025665585222226</v>
       </c>
       <c r="C61">
-        <v>342.3755874269156</v>
+        <v>548.8230580366464</v>
       </c>
       <c r="D61">
-        <v>892.7225874269157</v>
+        <v>1099.170058036647</v>
       </c>
       <c r="E61">
         <v>668.5470000000001</v>
@@ -6238,45 +6238,45 @@
         <v>88.2</v>
       </c>
       <c r="M61">
-        <v>43.82078680000001</v>
+        <v>15.3781022</v>
       </c>
       <c r="N61">
-        <v>44.3792132</v>
+        <v>72.8218978</v>
       </c>
       <c r="O61">
-        <v>9.763426903999999</v>
+        <v>16.020817516</v>
       </c>
       <c r="P61">
-        <v>34.615786296</v>
+        <v>56.801080284</v>
       </c>
       <c r="Q61">
-        <v>41.315786296</v>
+        <v>63.501080284</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.1691872075049732</v>
+        <v>0.1703808191517616</v>
       </c>
       <c r="T61">
         <v>1.602835759747594</v>
       </c>
       <c r="U61">
-        <v>0.0644</v>
+        <v>0.0226</v>
       </c>
       <c r="V61">
         <v>0.22</v>
       </c>
       <c r="W61">
-        <v>0.050232</v>
+        <v>0.017628</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y61">
-        <v>2.012743413361076</v>
+        <v>5.735428133648377</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6287,13 +6287,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.1042433625912088</v>
+        <v>0.0801729686046069</v>
       </c>
       <c r="C62">
-        <v>277.9542420857065</v>
+        <v>538.5879649626494</v>
       </c>
       <c r="D62">
-        <v>839.8342420857066</v>
+        <v>1100.46796496265</v>
       </c>
       <c r="E62">
         <v>680.0800000000002</v>
@@ -6320,45 +6320,45 @@
         <v>88.2</v>
       </c>
       <c r="M62">
-        <v>52.03689600000001</v>
+        <v>15.638748</v>
       </c>
       <c r="N62">
-        <v>36.16310399999999</v>
+        <v>72.561252</v>
       </c>
       <c r="O62">
-        <v>7.955882879999998</v>
+        <v>15.96347544</v>
       </c>
       <c r="P62">
-        <v>28.20722111999999</v>
+        <v>56.59777656</v>
       </c>
       <c r="Q62">
-        <v>34.90722112</v>
+        <v>63.29777656</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.1726244064780219</v>
+        <v>0.1739904215115173</v>
       </c>
       <c r="T62">
         <v>1.638753131978205</v>
       </c>
       <c r="U62">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V62">
         <v>0.22</v>
       </c>
       <c r="W62">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y62">
-        <v>1.694951213077736</v>
+        <v>5.639837664754237</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6369,13 +6369,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.1045129301053785</v>
+        <v>0.08008928135699153</v>
       </c>
       <c r="C63">
-        <v>263.8692800584714</v>
+        <v>528.3559406656257</v>
       </c>
       <c r="D63">
-        <v>837.2822800584715</v>
+        <v>1101.768940665626</v>
       </c>
       <c r="E63">
         <v>691.6130000000002</v>
@@ -6402,45 +6402,45 @@
         <v>88.2</v>
       </c>
       <c r="M63">
-        <v>52.90417760000001</v>
+        <v>15.8993938</v>
       </c>
       <c r="N63">
-        <v>35.29582239999999</v>
+        <v>72.3006062</v>
       </c>
       <c r="O63">
-        <v>7.765080927999998</v>
+        <v>15.906133364</v>
       </c>
       <c r="P63">
-        <v>27.530741472</v>
+        <v>56.39447283600001</v>
       </c>
       <c r="Q63">
-        <v>34.230741472</v>
+        <v>63.09447283600001</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.176237872065073</v>
+        <v>0.1777851316845937</v>
       </c>
       <c r="T63">
         <v>1.676512420733463</v>
       </c>
       <c r="U63">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V63">
         <v>0.22</v>
       </c>
       <c r="W63">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y63">
-        <v>1.667165127617445</v>
+        <v>5.547381309594331</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6451,13 +6451,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.1047824976195482</v>
+        <v>0.08000559410937617</v>
       </c>
       <c r="C64">
-        <v>249.7997800845242</v>
+        <v>518.1269960422027</v>
       </c>
       <c r="D64">
-        <v>834.7457800845243</v>
+        <v>1103.072996042203</v>
       </c>
       <c r="E64">
         <v>703.1460000000002</v>
@@ -6484,45 +6484,45 @@
         <v>88.2</v>
       </c>
       <c r="M64">
-        <v>53.77145920000002</v>
+        <v>16.1600396</v>
       </c>
       <c r="N64">
-        <v>34.42854079999999</v>
+        <v>72.0399604</v>
       </c>
       <c r="O64">
-        <v>7.574278975999997</v>
+        <v>15.848791288</v>
       </c>
       <c r="P64">
-        <v>26.85426182399999</v>
+        <v>56.191169112</v>
       </c>
       <c r="Q64">
-        <v>33.55426182399999</v>
+        <v>62.891169112</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.1800415200514427</v>
+        <v>0.1817795634457268</v>
       </c>
       <c r="T64">
         <v>1.71625904047584</v>
       </c>
       <c r="U64">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V64">
         <v>0.22</v>
       </c>
       <c r="W64">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y64">
-        <v>1.640275367494583</v>
+        <v>5.4579074175041</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6533,13 +6533,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.105052065133718</v>
+        <v>0.0799219068617608</v>
       </c>
       <c r="C65">
-        <v>235.7456020640052</v>
+        <v>507.9011420406576</v>
       </c>
       <c r="D65">
-        <v>832.2246020640052</v>
+        <v>1104.380142040658</v>
       </c>
       <c r="E65">
         <v>714.6790000000001</v>
@@ -6566,45 +6566,45 @@
         <v>88.2</v>
       </c>
       <c r="M65">
-        <v>54.63874080000001</v>
+        <v>16.4206854</v>
       </c>
       <c r="N65">
-        <v>33.56125919999999</v>
+        <v>71.77931460000001</v>
       </c>
       <c r="O65">
-        <v>7.383477023999999</v>
+        <v>15.791449212</v>
       </c>
       <c r="P65">
-        <v>26.177782176</v>
+        <v>55.987865388</v>
       </c>
       <c r="Q65">
-        <v>32.877782176</v>
+        <v>62.68786538800001</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.1840507706316702</v>
+        <v>0.1859899104371914</v>
       </c>
       <c r="T65">
         <v>1.758154126150238</v>
       </c>
       <c r="U65">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V65">
         <v>0.22</v>
       </c>
       <c r="W65">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y65">
-        <v>1.614239250550225</v>
+        <v>5.371273966432607</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6615,13 +6615,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.1053216326478877</v>
+        <v>0.07983821961414544</v>
       </c>
       <c r="C66">
-        <v>221.7066075845289</v>
+        <v>497.6783896612242</v>
       </c>
       <c r="D66">
-        <v>829.718607584529</v>
+        <v>1105.690389661224</v>
       </c>
       <c r="E66">
         <v>726.2120000000001</v>
@@ -6648,45 +6648,45 @@
         <v>88.2</v>
       </c>
       <c r="M66">
-        <v>55.50602240000001</v>
+        <v>16.6813312</v>
       </c>
       <c r="N66">
-        <v>32.6939776</v>
+        <v>71.5186688</v>
       </c>
       <c r="O66">
-        <v>7.192675071999999</v>
+        <v>15.734107136</v>
       </c>
       <c r="P66">
-        <v>25.501302528</v>
+        <v>55.784561664</v>
       </c>
       <c r="Q66">
-        <v>32.201302528</v>
+        <v>62.484561664</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.1882827573552437</v>
+        <v>0.1904341655948485</v>
       </c>
       <c r="T66">
         <v>1.802376716584324</v>
       </c>
       <c r="U66">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V66">
         <v>0.22</v>
       </c>
       <c r="W66">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y66">
-        <v>1.589016762260377</v>
+        <v>5.287347810707097</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.1055912001620575</v>
+        <v>0.0797545323665301</v>
       </c>
       <c r="C67">
-        <v>207.682659895855</v>
+        <v>487.4587499564017</v>
       </c>
       <c r="D67">
-        <v>827.227659895855</v>
+        <v>1107.003749956402</v>
       </c>
       <c r="E67">
         <v>737.7450000000001</v>
@@ -6730,45 +6730,45 @@
         <v>88.2</v>
       </c>
       <c r="M67">
-        <v>56.37330400000001</v>
+        <v>16.941977</v>
       </c>
       <c r="N67">
-        <v>31.82669599999999</v>
+        <v>71.25802300000001</v>
       </c>
       <c r="O67">
-        <v>7.001873119999998</v>
+        <v>15.67676506</v>
       </c>
       <c r="P67">
-        <v>24.82482287999999</v>
+        <v>55.58125794000001</v>
       </c>
       <c r="Q67">
-        <v>31.52482287999999</v>
+        <v>62.28125794000001</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.1927565718915928</v>
+        <v>0.195132378190086</v>
       </c>
       <c r="T67">
         <v>1.849126312186073</v>
       </c>
       <c r="U67">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V67">
         <v>0.22</v>
       </c>
       <c r="W67">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y67">
-        <v>1.564570350533295</v>
+        <v>5.206003998234681</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6779,13 +6779,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.1058607676762272</v>
+        <v>0.07967084511891473</v>
       </c>
       <c r="C68">
-        <v>193.673623885011</v>
+        <v>477.2422340312653</v>
       </c>
       <c r="D68">
-        <v>824.7516238850111</v>
+        <v>1108.320234031265</v>
       </c>
       <c r="E68">
         <v>749.2780000000001</v>
@@ -6812,45 +6812,45 @@
         <v>88.2</v>
       </c>
       <c r="M68">
-        <v>57.24058560000001</v>
+        <v>17.2026228</v>
       </c>
       <c r="N68">
-        <v>30.95941439999999</v>
+        <v>70.9973772</v>
       </c>
       <c r="O68">
-        <v>6.811071167999999</v>
+        <v>15.619422984</v>
       </c>
       <c r="P68">
-        <v>24.14834323199999</v>
+        <v>55.37795421600001</v>
       </c>
       <c r="Q68">
-        <v>30.848343232</v>
+        <v>62.07795421600001</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.1974935519889036</v>
+        <v>0.2001069562321021</v>
       </c>
       <c r="T68">
         <v>1.898625883999688</v>
       </c>
       <c r="U68">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V68">
         <v>0.22</v>
       </c>
       <c r="W68">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y68">
-        <v>1.540864739161578</v>
+        <v>5.127125149776579</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6861,13 +6861,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.106130335190397</v>
+        <v>0.07958715787129936</v>
       </c>
       <c r="C69">
-        <v>179.6793660518641</v>
+        <v>467.0288530437787</v>
       </c>
       <c r="D69">
-        <v>822.2903660518642</v>
+        <v>1109.639853043779</v>
       </c>
       <c r="E69">
         <v>760.8110000000001</v>
@@ -6894,45 +6894,45 @@
         <v>88.2</v>
       </c>
       <c r="M69">
-        <v>58.10786720000001</v>
+        <v>17.4632686</v>
       </c>
       <c r="N69">
-        <v>30.09213279999999</v>
+        <v>70.7367314</v>
       </c>
       <c r="O69">
-        <v>6.620269215999999</v>
+        <v>15.562080908</v>
       </c>
       <c r="P69">
-        <v>23.471863584</v>
+        <v>55.174650492</v>
       </c>
       <c r="Q69">
-        <v>30.171863584</v>
+        <v>61.874650492</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2025176217890818</v>
+        <v>0.2053830238524223</v>
       </c>
       <c r="T69">
         <v>1.951125429862614</v>
       </c>
       <c r="U69">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V69">
         <v>0.22</v>
       </c>
       <c r="W69">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y69">
-        <v>1.517866757980062</v>
+        <v>5.050600893809764</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6943,13 +6943,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.1285131532631846</v>
+        <v>0.079503470623684</v>
       </c>
       <c r="C70">
-        <v>4.854193545884755</v>
+        <v>456.8186182051099</v>
       </c>
       <c r="D70">
-        <v>658.9981935458849</v>
+        <v>1110.96261820511</v>
       </c>
       <c r="E70">
         <v>772.3440000000002</v>
@@ -6976,45 +6976,45 @@
         <v>88.2</v>
       </c>
       <c r="M70">
-        <v>90.58018200000001</v>
+        <v>17.7239144</v>
       </c>
       <c r="N70">
-        <v>-2.380182000000005</v>
+        <v>70.4760856</v>
       </c>
       <c r="O70">
-        <v>-0.5236400400000011</v>
+        <v>15.504738832</v>
       </c>
       <c r="P70">
-        <v>-1.856541960000004</v>
+        <v>54.971346768</v>
       </c>
       <c r="Q70">
-        <v>4.843458039999999</v>
+        <v>61.67134676800001</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.2087434905771234</v>
+        <v>0.2109888456990125</v>
       </c>
       <c r="T70">
-        <v>2.016183300667427</v>
+        <v>2.006906197341973</v>
       </c>
       <c r="U70">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V70">
-        <v>0.2142190440730181</v>
+        <v>0.22</v>
       </c>
       <c r="W70">
-        <v>0.09075770040956641</v>
+        <v>0.017628</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y70">
-        <v>0.9737229276046276</v>
+        <v>4.976327351253738</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7025,13 +7025,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.1295101532631847</v>
+        <v>0.07941978337606864</v>
       </c>
       <c r="C71">
-        <v>-12.45684104566647</v>
+        <v>446.6115407799485</v>
       </c>
       <c r="D71">
-        <v>653.2201589543337</v>
+        <v>1112.288540779949</v>
       </c>
       <c r="E71">
         <v>783.8770000000002</v>
@@ -7058,45 +7058,45 @@
         <v>88.2</v>
       </c>
       <c r="M71">
-        <v>91.91224350000002</v>
+        <v>17.9845602</v>
       </c>
       <c r="N71">
-        <v>-3.712243500000014</v>
+        <v>70.2154398</v>
       </c>
       <c r="O71">
-        <v>-0.8166935700000031</v>
+        <v>15.447396756</v>
       </c>
       <c r="P71">
-        <v>-2.895549930000011</v>
+        <v>54.768043044</v>
       </c>
       <c r="Q71">
-        <v>3.804450069999992</v>
+        <v>61.468043044</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.2149674741441274</v>
+        <v>0.2169563334711892</v>
       </c>
       <c r="T71">
-        <v>2.081221471656699</v>
+        <v>2.066285724013548</v>
       </c>
       <c r="U71">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V71">
-        <v>0.2111144202458729</v>
+        <v>0.22</v>
       </c>
       <c r="W71">
-        <v>0.09111628446160168</v>
+        <v>0.017628</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y71">
-        <v>0.959611001117604</v>
+        <v>4.904206665003684</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7107,13 +7107,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.1305071532631846</v>
+        <v>0.07933609612845327</v>
       </c>
       <c r="C72">
-        <v>-29.66743376722229</v>
+        <v>436.4076320868264</v>
       </c>
       <c r="D72">
-        <v>647.5425662327779</v>
+        <v>1113.617632086827</v>
       </c>
       <c r="E72">
         <v>795.4100000000002</v>
@@ -7140,45 +7140,45 @@
         <v>88.2</v>
       </c>
       <c r="M72">
-        <v>93.24430500000001</v>
+        <v>18.245206</v>
       </c>
       <c r="N72">
-        <v>-5.044305000000008</v>
+        <v>69.95479399999999</v>
       </c>
       <c r="O72">
-        <v>-1.109747100000002</v>
+        <v>15.39005468</v>
       </c>
       <c r="P72">
-        <v>-3.934557900000007</v>
+        <v>54.56473931999999</v>
       </c>
       <c r="Q72">
-        <v>2.765442099999996</v>
+        <v>61.26473932</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.2216063899489316</v>
+        <v>0.2233216537615109</v>
       </c>
       <c r="T72">
-        <v>2.150595520711922</v>
+        <v>2.129623885796562</v>
       </c>
       <c r="U72">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V72">
-        <v>0.2080984999566461</v>
+        <v>0.22</v>
       </c>
       <c r="W72">
-        <v>0.09146462325500737</v>
+        <v>0.017628</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y72">
-        <v>0.9459022725302096</v>
+        <v>4.834146569789345</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7189,13 +7189,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.1315041532631847</v>
+        <v>0.07925240888083791</v>
       </c>
       <c r="C73">
-        <v>-46.78018108247704</v>
+        <v>426.2069034984377</v>
       </c>
       <c r="D73">
-        <v>641.962818917523</v>
+        <v>1114.949903498438</v>
       </c>
       <c r="E73">
         <v>806.9430000000001</v>
@@ -7222,45 +7222,45 @@
         <v>88.2</v>
       </c>
       <c r="M73">
-        <v>94.57636650000001</v>
+        <v>18.5058518</v>
       </c>
       <c r="N73">
-        <v>-6.376366500000003</v>
+        <v>69.6941482</v>
       </c>
       <c r="O73">
-        <v>-1.402800630000001</v>
+        <v>15.332712604</v>
       </c>
       <c r="P73">
-        <v>-4.973565870000002</v>
+        <v>54.361435596</v>
       </c>
       <c r="Q73">
-        <v>1.72643413</v>
+        <v>61.061435596</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.2287031620161362</v>
+        <v>0.2301259616580618</v>
       </c>
       <c r="T73">
-        <v>2.224753986943367</v>
+        <v>2.197330196668059</v>
       </c>
       <c r="U73">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V73">
-        <v>0.2051675351685244</v>
+        <v>0.22</v>
       </c>
       <c r="W73">
-        <v>0.09180314968803543</v>
+        <v>0.017628</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y73">
-        <v>0.9325797053114744</v>
+        <v>4.766059998383862</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7271,13 +7271,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.1325011532631846</v>
+        <v>0.07916872163322254</v>
       </c>
       <c r="C74">
-        <v>-63.79759072680463</v>
+        <v>416.0093664419652</v>
       </c>
       <c r="D74">
-        <v>636.4784092731954</v>
+        <v>1116.285366441965</v>
       </c>
       <c r="E74">
         <v>818.4760000000001</v>
@@ -7304,45 +7304,45 @@
         <v>88.2</v>
       </c>
       <c r="M74">
-        <v>95.908428</v>
+        <v>18.7664976</v>
       </c>
       <c r="N74">
-        <v>-7.708427999999998</v>
+        <v>69.43350240000001</v>
       </c>
       <c r="O74">
-        <v>-1.695854159999999</v>
+        <v>15.275370528</v>
       </c>
       <c r="P74">
-        <v>-6.012573839999998</v>
+        <v>54.15813187200001</v>
       </c>
       <c r="Q74">
-        <v>0.6874261600000047</v>
+        <v>60.85813187200001</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.2363068463738553</v>
+        <v>0.2374162915472234</v>
       </c>
       <c r="T74">
-        <v>2.304209486477059</v>
+        <v>2.269872672601807</v>
       </c>
       <c r="U74">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V74">
-        <v>0.2023179860689615</v>
+        <v>0.22</v>
       </c>
       <c r="W74">
-        <v>0.09213227260903493</v>
+        <v>0.017628</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y74">
-        <v>0.9196272094043706</v>
+        <v>4.699864720628531</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7353,13 +7353,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.1334981532631846</v>
+        <v>0.07908503438560717</v>
       </c>
       <c r="C75">
-        <v>-80.72208546526849</v>
+        <v>405.8150323994062</v>
       </c>
       <c r="D75">
-        <v>631.0869145347316</v>
+        <v>1117.624032399406</v>
       </c>
       <c r="E75">
         <v>830.0090000000001</v>
@@ -7386,45 +7386,45 @@
         <v>88.2</v>
       </c>
       <c r="M75">
-        <v>97.24048950000001</v>
+        <v>19.0271434</v>
       </c>
       <c r="N75">
-        <v>-9.040489500000007</v>
+        <v>69.1728566</v>
       </c>
       <c r="O75">
-        <v>-1.988907690000002</v>
+        <v>15.218028452</v>
       </c>
       <c r="P75">
-        <v>-7.051581810000005</v>
+        <v>53.954828148</v>
       </c>
       <c r="Q75">
-        <v>-0.3515818100000025</v>
+        <v>60.65482814800001</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.244473766609924</v>
+        <v>0.2452466458726192</v>
       </c>
       <c r="T75">
-        <v>2.389550578568802</v>
+        <v>2.347788665271386</v>
       </c>
       <c r="U75">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V75">
-        <v>0.1995465068077429</v>
+        <v>0.22</v>
       </c>
       <c r="W75">
-        <v>0.09245237846370569</v>
+        <v>0.017628</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y75">
-        <v>0.9070295763988312</v>
+        <v>4.63548301212677</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7435,13 +7435,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.1344951532631846</v>
+        <v>0.07900134713799181</v>
       </c>
       <c r="C76">
-        <v>-97.55600666123348</v>
+        <v>395.6239129079005</v>
       </c>
       <c r="D76">
-        <v>625.7859933387666</v>
+        <v>1118.965912907901</v>
       </c>
       <c r="E76">
         <v>841.5420000000001</v>
@@ -7468,45 +7468,45 @@
         <v>88.2</v>
       </c>
       <c r="M76">
-        <v>98.572551</v>
+        <v>19.2877892</v>
       </c>
       <c r="N76">
-        <v>-10.372551</v>
+        <v>68.9122108</v>
       </c>
       <c r="O76">
-        <v>-2.28196122</v>
+        <v>15.160686376</v>
       </c>
       <c r="P76">
-        <v>-8.090589780000002</v>
+        <v>53.751524424</v>
       </c>
       <c r="Q76">
-        <v>-1.390589779999999</v>
+        <v>60.451524424</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.2532689114795365</v>
+        <v>0.2536793351461223</v>
       </c>
       <c r="T76">
-        <v>2.481456370052217</v>
+        <v>2.431698195838627</v>
       </c>
       <c r="U76">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V76">
-        <v>0.196849932391422</v>
+        <v>0.22</v>
       </c>
       <c r="W76">
-        <v>0.09276383280879075</v>
+        <v>0.017628</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y76">
-        <v>0.8947724199610092</v>
+        <v>4.572841349800733</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7517,13 +7517,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.1354921532631846</v>
+        <v>0.07891765989037644</v>
       </c>
       <c r="C77">
-        <v>-114.3016176666257</v>
+        <v>385.4360195600652</v>
       </c>
       <c r="D77">
-        <v>620.5733823333744</v>
+        <v>1120.311019560065</v>
       </c>
       <c r="E77">
         <v>853.0750000000002</v>
@@ -7550,45 +7550,45 @@
         <v>88.2</v>
       </c>
       <c r="M77">
-        <v>99.90461250000001</v>
+        <v>19.548435</v>
       </c>
       <c r="N77">
-        <v>-11.70461250000001</v>
+        <v>68.65156500000001</v>
       </c>
       <c r="O77">
-        <v>-2.575014750000002</v>
+        <v>15.1033443</v>
       </c>
       <c r="P77">
-        <v>-9.129597750000007</v>
+        <v>53.5482207</v>
       </c>
       <c r="Q77">
-        <v>-2.429597750000005</v>
+        <v>60.2482207</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.2627676679387179</v>
+        <v>0.2627866395615058</v>
       </c>
       <c r="T77">
-        <v>2.580714624854306</v>
+        <v>2.522320488851247</v>
       </c>
       <c r="U77">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V77">
-        <v>0.1942252666262031</v>
+        <v>0.22</v>
       </c>
       <c r="W77">
-        <v>0.09306698170467353</v>
+        <v>0.017628</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y77">
-        <v>0.8828421210281957</v>
+        <v>4.51187013180339</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7599,13 +7599,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.1364891532631846</v>
+        <v>0.1324267421155267</v>
       </c>
       <c r="C78">
-        <v>-130.961107044152</v>
+        <v>-112.967772547265</v>
       </c>
       <c r="D78">
-        <v>615.4468929558482</v>
+        <v>633.4402274527351</v>
       </c>
       <c r="E78">
         <v>864.6080000000002</v>
@@ -7632,37 +7632,37 @@
         <v>88.2</v>
       </c>
       <c r="M78">
-        <v>101.236674</v>
+        <v>95.53937200000001</v>
       </c>
       <c r="N78">
-        <v>-13.036674</v>
+        <v>-7.339372000000012</v>
       </c>
       <c r="O78">
-        <v>-2.868068280000001</v>
+        <v>-1.614661840000003</v>
       </c>
       <c r="P78">
-        <v>-10.16860572</v>
+        <v>-5.724710160000009</v>
       </c>
       <c r="Q78">
-        <v>-3.468605720000001</v>
+        <v>0.9752898399999941</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.2730579874361645</v>
+        <v>0.2767146076542565</v>
       </c>
       <c r="T78">
-        <v>2.688244400889902</v>
+        <v>2.660910827770815</v>
       </c>
       <c r="U78">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V78">
-        <v>0.1916696710127004</v>
+        <v>0.2030995137795128</v>
       </c>
       <c r="W78">
-        <v>0.0933621529980331</v>
+        <v>0.0868621529980331</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>0.8712257773304564</v>
+        <v>0.9231796080886945</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7681,13 +7681,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.1374861532631846</v>
+        <v>0.1334237421155267</v>
       </c>
       <c r="C79">
-        <v>-147.5365916311197</v>
+        <v>-129.5887589067366</v>
       </c>
       <c r="D79">
-        <v>610.4044083688805</v>
+        <v>628.3522410932635</v>
       </c>
       <c r="E79">
         <v>876.1410000000002</v>
@@ -7714,37 +7714,37 @@
         <v>88.2</v>
       </c>
       <c r="M79">
-        <v>102.5687355</v>
+        <v>96.79646900000002</v>
       </c>
       <c r="N79">
-        <v>-14.36873550000001</v>
+        <v>-8.596469000000013</v>
       </c>
       <c r="O79">
-        <v>-3.161121810000003</v>
+        <v>-1.891223180000003</v>
       </c>
       <c r="P79">
-        <v>-11.20761369000001</v>
+        <v>-6.705245820000011</v>
       </c>
       <c r="Q79">
-        <v>-4.507613690000008</v>
+        <v>-0.005245820000007839</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.2842431173246934</v>
+        <v>0.2883413297261807</v>
       </c>
       <c r="T79">
-        <v>2.805124592232942</v>
+        <v>2.776602602891285</v>
       </c>
       <c r="U79">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V79">
-        <v>0.1891804545060419</v>
+        <v>0.2004618577564022</v>
       </c>
       <c r="W79">
-        <v>0.09364965750455215</v>
+        <v>0.08714965750455216</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>0.8599111568456451</v>
+        <v>0.9111902625291011</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7763,13 +7763,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.1384831532631846</v>
+        <v>0.1344207421155267</v>
       </c>
       <c r="C80">
-        <v>-164.0301194538617</v>
+        <v>-146.1286600310248</v>
       </c>
       <c r="D80">
-        <v>605.4438805461384</v>
+        <v>623.3453399689754</v>
       </c>
       <c r="E80">
         <v>887.6740000000002</v>
@@ -7796,37 +7796,37 @@
         <v>88.2</v>
       </c>
       <c r="M80">
-        <v>103.900797</v>
+        <v>98.05356600000002</v>
       </c>
       <c r="N80">
-        <v>-15.70079700000001</v>
+        <v>-9.853566000000015</v>
       </c>
       <c r="O80">
-        <v>-3.454175340000002</v>
+        <v>-2.167784520000003</v>
       </c>
       <c r="P80">
-        <v>-12.24662166000001</v>
+        <v>-7.685781480000012</v>
       </c>
       <c r="Q80">
-        <v>-5.546621660000003</v>
+        <v>-0.9857814800000089</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.2964450772030885</v>
+        <v>0.3010250265319163</v>
       </c>
       <c r="T80">
-        <v>2.932630255516257</v>
+        <v>2.902811812113617</v>
       </c>
       <c r="U80">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V80">
-        <v>0.1867550640636568</v>
+        <v>0.1978918339390124</v>
       </c>
       <c r="W80">
-        <v>0.09392979010064763</v>
+        <v>0.08742979010064765</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>0.8488866548348035</v>
+        <v>0.8995083360864202</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7845,13 +7845,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.1394801532631846</v>
+        <v>0.1354177421155267</v>
       </c>
       <c r="C81">
-        <v>-180.443672501205</v>
+        <v>-162.5893989321842</v>
       </c>
       <c r="D81">
-        <v>600.5633274987952</v>
+        <v>618.417601067816</v>
       </c>
       <c r="E81">
         <v>899.2070000000002</v>
@@ -7878,37 +7878,37 @@
         <v>88.2</v>
       </c>
       <c r="M81">
-        <v>105.2328585</v>
+        <v>99.31066300000002</v>
       </c>
       <c r="N81">
-        <v>-17.03285850000002</v>
+        <v>-11.11066300000002</v>
       </c>
       <c r="O81">
-        <v>-3.747228870000004</v>
+        <v>-2.444345860000004</v>
       </c>
       <c r="P81">
-        <v>-13.28562963000001</v>
+        <v>-8.666317140000013</v>
       </c>
       <c r="Q81">
-        <v>-6.58562963000001</v>
+        <v>-1.96631714000001</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.3098091284984738</v>
+        <v>0.3149166944620075</v>
       </c>
       <c r="T81">
-        <v>3.072279315302746</v>
+        <v>3.04104094602379</v>
       </c>
       <c r="U81">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V81">
-        <v>0.1843910759109522</v>
+        <v>0.1953868740157338</v>
       </c>
       <c r="W81">
-        <v>0.09420283073228501</v>
+        <v>0.08770283073228501</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.8381412541406921</v>
+        <v>0.8881221546169719</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7927,13 +7927,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.1404771532631846</v>
+        <v>0.1364147421155267</v>
       </c>
       <c r="C82">
-        <v>-196.7791693648634</v>
+        <v>-178.9728382911711</v>
       </c>
       <c r="D82">
-        <v>595.7608306351368</v>
+        <v>613.5671617088291</v>
       </c>
       <c r="E82">
         <v>910.7400000000002</v>
@@ -7960,37 +7960,37 @@
         <v>88.2</v>
       </c>
       <c r="M82">
-        <v>106.56492</v>
+        <v>100.56776</v>
       </c>
       <c r="N82">
-        <v>-18.36492000000001</v>
+        <v>-12.36776000000002</v>
       </c>
       <c r="O82">
-        <v>-4.040282400000002</v>
+        <v>-2.720907200000004</v>
       </c>
       <c r="P82">
-        <v>-14.32463760000001</v>
+        <v>-9.646852800000014</v>
       </c>
       <c r="Q82">
-        <v>-7.624637600000007</v>
+        <v>-2.946852800000011</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.3245095849233975</v>
+        <v>0.3301975291851079</v>
       </c>
       <c r="T82">
-        <v>3.225893281067883</v>
+        <v>3.193092993324979</v>
       </c>
       <c r="U82">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V82">
-        <v>0.1820861874620654</v>
+        <v>0.1929445380905371</v>
       </c>
       <c r="W82">
-        <v>0.09446904534813144</v>
+        <v>0.08796904534813145</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.8276644884639335</v>
+        <v>0.8770206276842597</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8009,13 +8009,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.1414741532631846</v>
+        <v>0.1374117421155267</v>
       </c>
       <c r="C83">
-        <v>-213.0384677541539</v>
+        <v>-195.2807828054066</v>
       </c>
       <c r="D83">
-        <v>591.0345322458463</v>
+        <v>608.7922171945936</v>
       </c>
       <c r="E83">
         <v>922.2730000000003</v>
@@ -8042,37 +8042,37 @@
         <v>88.2</v>
       </c>
       <c r="M83">
-        <v>107.8969815</v>
+        <v>101.824857</v>
       </c>
       <c r="N83">
-        <v>-19.69698150000002</v>
+        <v>-13.62485700000002</v>
       </c>
       <c r="O83">
-        <v>-4.333335930000005</v>
+        <v>-2.997468540000004</v>
       </c>
       <c r="P83">
-        <v>-15.36364557000002</v>
+        <v>-10.62738846000002</v>
       </c>
       <c r="Q83">
-        <v>-8.663645570000014</v>
+        <v>-3.927388460000014</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.3407574578141026</v>
+        <v>0.3470868728264294</v>
       </c>
       <c r="T83">
-        <v>3.395677137966193</v>
+        <v>3.361150519289452</v>
       </c>
       <c r="U83">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V83">
-        <v>0.1798382098390769</v>
+        <v>0.190562506756086</v>
       </c>
       <c r="W83">
-        <v>0.0947286867635866</v>
+        <v>0.08822868676358661</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.8174464083594404</v>
+        <v>0.8661932125276639</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8091,13 +8091,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.1424711532631847</v>
+        <v>0.1384087421155267</v>
       </c>
       <c r="C84">
-        <v>-229.2233668919538</v>
+        <v>-211.514981427572</v>
       </c>
       <c r="D84">
-        <v>586.3826331080464</v>
+        <v>604.0910185724282</v>
       </c>
       <c r="E84">
         <v>933.8060000000003</v>
@@ -8124,37 +8124,37 @@
         <v>88.2</v>
       </c>
       <c r="M84">
-        <v>109.229043</v>
+        <v>103.081954</v>
       </c>
       <c r="N84">
-        <v>-21.02904300000002</v>
+        <v>-14.88195400000002</v>
       </c>
       <c r="O84">
-        <v>-4.626389460000003</v>
+        <v>-3.274029880000005</v>
       </c>
       <c r="P84">
-        <v>-16.40265354000001</v>
+        <v>-11.60792412000002</v>
       </c>
       <c r="Q84">
-        <v>-9.702653540000011</v>
+        <v>-4.907924120000015</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.3588106499148861</v>
+        <v>0.3658528102056754</v>
       </c>
       <c r="T84">
-        <v>3.584325867853204</v>
+        <v>3.547881103694421</v>
       </c>
       <c r="U84">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V84">
-        <v>0.1776450609386004</v>
+        <v>0.1882385737468655</v>
       </c>
       <c r="W84">
-        <v>0.09498199546159165</v>
+        <v>0.08848199546159166</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.8074775497209107</v>
+        <v>0.8556298806675704</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8173,13 +8173,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.1716031083851884</v>
+        <v>0.1394057421155268</v>
       </c>
       <c r="C85">
-        <v>-350.3977773174337</v>
+        <v>-227.6771295014667</v>
       </c>
       <c r="D85">
-        <v>476.7412226825666</v>
+        <v>599.4618704985336</v>
       </c>
       <c r="E85">
         <v>945.3390000000003</v>
@@ -8206,45 +8206,45 @@
         <v>88.2</v>
       </c>
       <c r="M85">
-        <v>140.4269613</v>
+        <v>104.339051</v>
       </c>
       <c r="N85">
-        <v>-52.22696130000004</v>
+        <v>-16.13905100000002</v>
       </c>
       <c r="O85">
-        <v>-11.48993148600001</v>
+        <v>-3.550591220000005</v>
       </c>
       <c r="P85">
-        <v>-40.73702981400003</v>
+        <v>-12.58845978000002</v>
       </c>
       <c r="Q85">
-        <v>-34.03702981400003</v>
+        <v>-5.888459780000016</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.3921580712157837</v>
+        <v>0.3868265049236564</v>
       </c>
       <c r="T85">
-        <v>3.932793254579142</v>
+        <v>3.756579992147035</v>
       </c>
       <c r="U85">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V85">
-        <v>0.1381785934863777</v>
+        <v>0.1859706391234093</v>
       </c>
       <c r="W85">
-        <v>0.1264292003355484</v>
+        <v>0.08872920033554839</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y85">
-        <v>0.6280845158471714</v>
+        <v>0.8453210869245876</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8255,13 +8255,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.1729121083851884</v>
+        <v>0.1404027421155267</v>
       </c>
       <c r="C86">
-        <v>-365.9028089253446</v>
+        <v>-243.7688708004117</v>
       </c>
       <c r="D86">
-        <v>472.7691910746556</v>
+        <v>594.9031291995884</v>
       </c>
       <c r="E86">
         <v>956.8720000000002</v>
@@ -8288,45 +8288,45 @@
         <v>88.2</v>
       </c>
       <c r="M86">
-        <v>142.1188524</v>
+        <v>105.596148</v>
       </c>
       <c r="N86">
-        <v>-53.91885240000001</v>
+        <v>-17.39614800000001</v>
       </c>
       <c r="O86">
-        <v>-11.862147528</v>
+        <v>-3.827152560000002</v>
       </c>
       <c r="P86">
-        <v>-42.056704872</v>
+        <v>-13.56899544000001</v>
       </c>
       <c r="Q86">
-        <v>-35.356704872</v>
+        <v>-6.868995440000006</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.41568045066677</v>
+        <v>0.4104219114813847</v>
       </c>
       <c r="T86">
-        <v>4.178592832990337</v>
+        <v>3.991366241656222</v>
       </c>
       <c r="U86">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V86">
-        <v>0.1365336102305875</v>
+        <v>0.1837567029433687</v>
       </c>
       <c r="W86">
-        <v>0.1266705193791728</v>
+        <v>0.0889705193791728</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y86">
-        <v>0.6206073192299433</v>
+        <v>0.8352577406516759</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8337,13 +8337,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.1742211083851884</v>
+        <v>0.1413997421155267</v>
       </c>
       <c r="C87">
-        <v>-381.3422004247149</v>
+        <v>-259.7917994733482</v>
       </c>
       <c r="D87">
-        <v>468.8627995752853</v>
+        <v>590.413200526652</v>
       </c>
       <c r="E87">
         <v>968.4050000000002</v>
@@ -8370,45 +8370,45 @@
         <v>88.2</v>
       </c>
       <c r="M87">
-        <v>143.8107435</v>
+        <v>106.853245</v>
       </c>
       <c r="N87">
-        <v>-55.61074350000003</v>
+        <v>-18.65324500000001</v>
       </c>
       <c r="O87">
-        <v>-12.23436357000001</v>
+        <v>-4.103713900000002</v>
       </c>
       <c r="P87">
-        <v>-43.37637993000002</v>
+        <v>-14.54953110000001</v>
       </c>
       <c r="Q87">
-        <v>-36.67637993000002</v>
+        <v>-7.849531100000007</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.442339147377888</v>
+        <v>0.4371633722468104</v>
       </c>
       <c r="T87">
-        <v>4.457165688523026</v>
+        <v>4.257457324433304</v>
       </c>
       <c r="U87">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V87">
-        <v>0.1349273324631688</v>
+        <v>0.1815948593793291</v>
       </c>
       <c r="W87">
-        <v>0.1269061603276531</v>
+        <v>0.08920616032765313</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y87">
-        <v>0.6133060566507674</v>
+        <v>0.8254311789969504</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8419,13 +8419,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.1755301083851883</v>
+        <v>0.1423967421155267</v>
       </c>
       <c r="C88">
-        <v>-396.7175655921134</v>
+        <v>-275.7474619034633</v>
       </c>
       <c r="D88">
-        <v>465.0204344078869</v>
+        <v>585.9905380965369</v>
       </c>
       <c r="E88">
         <v>979.9380000000002</v>
@@ -8452,45 +8452,45 @@
         <v>88.2</v>
       </c>
       <c r="M88">
-        <v>145.5026346</v>
+        <v>108.110342</v>
       </c>
       <c r="N88">
-        <v>-57.30263460000002</v>
+        <v>-19.91034200000001</v>
       </c>
       <c r="O88">
-        <v>-12.606579612</v>
+        <v>-4.380275240000003</v>
       </c>
       <c r="P88">
-        <v>-44.69605498800001</v>
+        <v>-15.53006676000001</v>
       </c>
       <c r="Q88">
-        <v>-37.99605498800001</v>
+        <v>-8.830066760000008</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.4728062293334514</v>
+        <v>0.4677250416930112</v>
       </c>
       <c r="T88">
-        <v>4.77553466627467</v>
+        <v>4.561561419035683</v>
       </c>
       <c r="U88">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V88">
-        <v>0.1333584099926669</v>
+        <v>0.1794832912470113</v>
       </c>
       <c r="W88">
-        <v>0.1271363212540758</v>
+        <v>0.08943632125407577</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y88">
-        <v>0.6061745908757585</v>
+        <v>0.8158331420318695</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8501,13 +8501,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.1768391083851884</v>
+        <v>0.1433937421155267</v>
       </c>
       <c r="C89">
-        <v>-412.030465734034</v>
+        <v>-291.6373584839088</v>
       </c>
       <c r="D89">
-        <v>461.2405342659662</v>
+        <v>581.6336415160914</v>
       </c>
       <c r="E89">
         <v>991.4710000000002</v>
@@ -8534,45 +8534,45 @@
         <v>88.2</v>
       </c>
       <c r="M89">
-        <v>147.1945257</v>
+        <v>109.367439</v>
       </c>
       <c r="N89">
-        <v>-58.99452570000001</v>
+        <v>-21.16743900000002</v>
       </c>
       <c r="O89">
-        <v>-12.978795654</v>
+        <v>-4.656836580000004</v>
       </c>
       <c r="P89">
-        <v>-46.01573004600001</v>
+        <v>-16.51060242000001</v>
       </c>
       <c r="Q89">
-        <v>-39.31573004600001</v>
+        <v>-9.810602420000009</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.5079605546667939</v>
+        <v>0.5029885064386274</v>
       </c>
       <c r="T89">
-        <v>5.142883486757338</v>
+        <v>4.912450758961504</v>
       </c>
       <c r="U89">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V89">
-        <v>0.1318255547053948</v>
+        <v>0.1774202649108387</v>
       </c>
       <c r="W89">
-        <v>0.1273611911247186</v>
+        <v>0.08966119112471858</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y89">
-        <v>0.5992070668427039</v>
+        <v>0.8064557495947215</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8583,13 +8583,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.1781481083851884</v>
+        <v>0.1744537219007237</v>
       </c>
       <c r="C90">
-        <v>-427.2824118022052</v>
+        <v>-412.5565045541725</v>
       </c>
       <c r="D90">
-        <v>457.5215881977949</v>
+        <v>472.2474954458276</v>
       </c>
       <c r="E90">
         <v>1003.004</v>
@@ -8616,37 +8616,37 @@
         <v>88.2</v>
       </c>
       <c r="M90">
-        <v>148.8864168</v>
+        <v>142.2895408</v>
       </c>
       <c r="N90">
-        <v>-60.6864168</v>
+        <v>-54.08954079999999</v>
       </c>
       <c r="O90">
-        <v>-13.351011696</v>
+        <v>-11.899698976</v>
       </c>
       <c r="P90">
-        <v>-47.335405104</v>
+        <v>-42.189841824</v>
       </c>
       <c r="Q90">
-        <v>-40.635405104</v>
+        <v>-35.489841824</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.5489739342223602</v>
+        <v>0.5658540468518215</v>
       </c>
       <c r="T90">
-        <v>5.571457110653784</v>
+        <v>5.53799473595849</v>
       </c>
       <c r="U90">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V90">
-        <v>0.1303275370382881</v>
+        <v>0.1363698265586082</v>
       </c>
       <c r="W90">
-        <v>0.1275809503164831</v>
+        <v>0.1210809503164831</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8654,7 +8654,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.5923978956285822</v>
+        <v>0.6198628479936735</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8665,13 +8665,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.1794571083851884</v>
+        <v>0.1757627219007237</v>
       </c>
       <c r="C91">
-        <v>-442.474866407387</v>
+        <v>-427.8030805697518</v>
       </c>
       <c r="D91">
-        <v>453.8621335926131</v>
+        <v>468.5339194302483</v>
       </c>
       <c r="E91">
         <v>1014.537</v>
@@ -8698,37 +8698,37 @@
         <v>88.2</v>
       </c>
       <c r="M91">
-        <v>150.5783079</v>
+        <v>143.9064674</v>
       </c>
       <c r="N91">
-        <v>-62.37830790000002</v>
+        <v>-55.70646739999999</v>
       </c>
       <c r="O91">
-        <v>-13.72322773800001</v>
+        <v>-12.255422828</v>
       </c>
       <c r="P91">
-        <v>-48.65508016200002</v>
+        <v>-43.45104457199999</v>
       </c>
       <c r="Q91">
-        <v>-41.95508016200002</v>
+        <v>-36.75104457199999</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.5974442918789383</v>
+        <v>0.6164498692928962</v>
       </c>
       <c r="T91">
-        <v>6.077953211622309</v>
+        <v>6.041448802863807</v>
       </c>
       <c r="U91">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V91">
-        <v>0.1288631826895433</v>
+        <v>0.1348375813163766</v>
       </c>
       <c r="W91">
-        <v>0.127795771099444</v>
+        <v>0.121295771099444</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8736,7 +8736,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.585741739497924</v>
+        <v>0.612898096892621</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8747,13 +8747,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.1807661083851884</v>
+        <v>0.1770717219007237</v>
       </c>
       <c r="C92">
-        <v>-457.6092457372888</v>
+        <v>-442.9917079519226</v>
       </c>
       <c r="D92">
-        <v>450.2607542627114</v>
+        <v>464.8782920480776</v>
       </c>
       <c r="E92">
         <v>1026.07</v>
@@ -8780,37 +8780,37 @@
         <v>88.2</v>
       </c>
       <c r="M92">
-        <v>152.270199</v>
+        <v>145.523394</v>
       </c>
       <c r="N92">
-        <v>-64.07019900000004</v>
+        <v>-57.32339400000002</v>
       </c>
       <c r="O92">
-        <v>-14.09544378000001</v>
+        <v>-12.61114668</v>
       </c>
       <c r="P92">
-        <v>-49.97475522000003</v>
+        <v>-44.71224732000002</v>
       </c>
       <c r="Q92">
-        <v>-43.27475522000003</v>
+        <v>-38.01224732000001</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.6556087210668323</v>
+        <v>0.6771648562221859</v>
       </c>
       <c r="T92">
-        <v>6.685748532784542</v>
+        <v>6.645593683150189</v>
       </c>
       <c r="U92">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V92">
-        <v>0.1274313695485483</v>
+        <v>0.1333393859684169</v>
       </c>
       <c r="W92">
-        <v>0.128005818087228</v>
+        <v>0.1215058180872279</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.579233497947947</v>
+        <v>0.6060881180382585</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8829,13 +8829,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.1820751083851884</v>
+        <v>0.1783807219007237</v>
       </c>
       <c r="C93">
-        <v>-472.6869213838955</v>
+        <v>-458.1237325920482</v>
       </c>
       <c r="D93">
-        <v>446.7160786161047</v>
+        <v>461.279267407952</v>
       </c>
       <c r="E93">
         <v>1037.603</v>
@@ -8862,37 +8862,37 @@
         <v>88.2</v>
       </c>
       <c r="M93">
-        <v>153.9620901</v>
+        <v>147.1403206</v>
       </c>
       <c r="N93">
-        <v>-65.76209010000001</v>
+        <v>-58.94032060000002</v>
       </c>
       <c r="O93">
-        <v>-14.467659822</v>
+        <v>-12.96687053200001</v>
       </c>
       <c r="P93">
-        <v>-51.29443027800001</v>
+        <v>-45.97345006800002</v>
       </c>
       <c r="Q93">
-        <v>-44.594430278</v>
+        <v>-39.27345006800002</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.7266985789631469</v>
+        <v>0.7513720624690956</v>
       </c>
       <c r="T93">
-        <v>7.428609480871713</v>
+        <v>7.383992981277989</v>
       </c>
       <c r="U93">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V93">
-        <v>0.1260310248282346</v>
+        <v>0.1318741179907419</v>
       </c>
       <c r="W93">
-        <v>0.128211248657698</v>
+        <v>0.121711248657698</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.5728682946737939</v>
+        <v>0.599427809048827</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8911,13 +8911,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.1833841083851884</v>
+        <v>0.1796897219007237</v>
       </c>
       <c r="C94">
-        <v>-487.7092220851557</v>
+        <v>-473.2004590228528</v>
       </c>
       <c r="D94">
-        <v>443.2267779148446</v>
+        <v>457.7355409771475</v>
       </c>
       <c r="E94">
         <v>1049.136</v>
@@ -8944,37 +8944,37 @@
         <v>88.2</v>
       </c>
       <c r="M94">
-        <v>155.6539812</v>
+        <v>148.7572472</v>
       </c>
       <c r="N94">
-        <v>-67.45398120000003</v>
+        <v>-60.55724720000002</v>
       </c>
       <c r="O94">
-        <v>-14.83987586400001</v>
+        <v>-13.322594384</v>
       </c>
       <c r="P94">
-        <v>-52.61410533600002</v>
+        <v>-47.23465281600001</v>
       </c>
       <c r="Q94">
-        <v>-45.91410533600002</v>
+        <v>-40.53465281600001</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.8155609013335406</v>
+        <v>0.8441310702777328</v>
       </c>
       <c r="T94">
-        <v>8.35718566598068</v>
+        <v>8.306992103937739</v>
       </c>
       <c r="U94">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V94">
-        <v>0.1246611223844495</v>
+        <v>0.1304407036647556</v>
       </c>
       <c r="W94">
-        <v>0.1284122133462013</v>
+        <v>0.1219122133462012</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.5666414653838612</v>
+        <v>0.5929122893852528</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8993,13 +8993,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.1846931083851884</v>
+        <v>0.1809987219007237</v>
       </c>
       <c r="C95">
-        <v>-502.6774353856731</v>
+        <v>-488.2231519949735</v>
       </c>
       <c r="D95">
-        <v>439.7915646143271</v>
+        <v>454.2458480050267</v>
       </c>
       <c r="E95">
         <v>1060.669</v>
@@ -9026,37 +9026,37 @@
         <v>88.2</v>
       </c>
       <c r="M95">
-        <v>157.3458723</v>
+        <v>150.3741738</v>
       </c>
       <c r="N95">
-        <v>-69.14587230000002</v>
+        <v>-62.17417380000002</v>
       </c>
       <c r="O95">
-        <v>-15.212091906</v>
+        <v>-13.678318236</v>
       </c>
       <c r="P95">
-        <v>-53.93378039400002</v>
+        <v>-48.49585556400002</v>
       </c>
       <c r="Q95">
-        <v>-47.23378039400001</v>
+        <v>-41.79585556400001</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>0.9298124586669037</v>
+        <v>0.9633926517459804</v>
       </c>
       <c r="T95">
-        <v>9.55106933254935</v>
+        <v>9.493705261643132</v>
       </c>
       <c r="U95">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V95">
-        <v>0.1233206802082726</v>
+        <v>0.1290381154533067</v>
       </c>
       <c r="W95">
-        <v>0.1286088562134464</v>
+        <v>0.1221088562134464</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.5605485464012391</v>
+        <v>0.5865368884241211</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9075,13 +9075,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.1860021083851884</v>
+        <v>0.1823077219007238</v>
       </c>
       <c r="C96">
-        <v>-517.5928092207687</v>
+        <v>-503.1930379819458</v>
       </c>
       <c r="D96">
-        <v>436.4091907792316</v>
+        <v>450.8089620180545</v>
       </c>
       <c r="E96">
         <v>1072.202</v>
@@ -9108,37 +9108,37 @@
         <v>88.2</v>
       </c>
       <c r="M96">
-        <v>159.0377634</v>
+        <v>151.9911004</v>
       </c>
       <c r="N96">
-        <v>-70.83776340000004</v>
+        <v>-63.79110040000002</v>
       </c>
       <c r="O96">
-        <v>-15.58430794800001</v>
+        <v>-14.034042088</v>
       </c>
       <c r="P96">
-        <v>-55.25345545200003</v>
+        <v>-49.75705831200001</v>
       </c>
       <c r="Q96">
-        <v>-48.55345545200003</v>
+        <v>-43.05705831200001</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.082147868444721</v>
+        <v>1.122408093703644</v>
       </c>
       <c r="T96">
-        <v>11.14291422130758</v>
+        <v>11.07598947191699</v>
       </c>
       <c r="U96">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V96">
-        <v>0.1220087580783974</v>
+        <v>0.1276653695442289</v>
       </c>
       <c r="W96">
-        <v>0.1288013151898991</v>
+        <v>0.1223013151898991</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.5545852639927151</v>
+        <v>0.5802971342919496</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9157,13 +9157,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.1873111083851884</v>
+        <v>0.1836167219007238</v>
       </c>
       <c r="C97">
-        <v>-532.4565534280013</v>
+        <v>-518.1113066173765</v>
       </c>
       <c r="D97">
-        <v>433.0784465719989</v>
+        <v>447.4236933826237</v>
       </c>
       <c r="E97">
         <v>1083.735</v>
@@ -9190,37 +9190,37 @@
         <v>88.2</v>
       </c>
       <c r="M97">
-        <v>160.7296545</v>
+        <v>153.608027</v>
       </c>
       <c r="N97">
-        <v>-72.52965450000004</v>
+        <v>-65.40802700000002</v>
       </c>
       <c r="O97">
-        <v>-15.95652399000001</v>
+        <v>-14.38976594</v>
       </c>
       <c r="P97">
-        <v>-56.57313051000003</v>
+        <v>-51.01826106000001</v>
       </c>
       <c r="Q97">
-        <v>-49.87313051000002</v>
+        <v>-44.31826106000001</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.295417442133666</v>
+        <v>1.345029712444374</v>
       </c>
       <c r="T97">
-        <v>13.3714970655691</v>
+        <v>13.2911873663004</v>
       </c>
       <c r="U97">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V97">
-        <v>0.1207244553617826</v>
+        <v>0.1263215235490265</v>
       </c>
       <c r="W97">
-        <v>0.1289897223984265</v>
+        <v>0.1224897223984265</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.5487475243717392</v>
+        <v>0.574188743404666</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.1886201083851883</v>
+        <v>0.1849257219007238</v>
       </c>
       <c r="C98">
-        <v>-547.269841189997</v>
+        <v>-532.9791120678498</v>
       </c>
       <c r="D98">
-        <v>429.7981588100031</v>
+        <v>444.0888879321503</v>
       </c>
       <c r="E98">
         <v>1095.268</v>
@@ -9272,37 +9272,37 @@
         <v>88.2</v>
       </c>
       <c r="M98">
-        <v>162.4215456</v>
+        <v>155.2249536</v>
       </c>
       <c r="N98">
-        <v>-74.2215456</v>
+        <v>-67.02495360000002</v>
       </c>
       <c r="O98">
-        <v>-16.328740032</v>
+        <v>-14.745489792</v>
       </c>
       <c r="P98">
-        <v>-57.892805568</v>
+        <v>-52.27946380800002</v>
       </c>
       <c r="Q98">
-        <v>-51.192805568</v>
+        <v>-45.57946380800001</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.615321802667079</v>
+        <v>1.678962140555464</v>
       </c>
       <c r="T98">
-        <v>16.71437133196133</v>
+        <v>16.61398420787546</v>
       </c>
       <c r="U98">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V98">
-        <v>0.1194669089517641</v>
+        <v>0.1250056743453908</v>
       </c>
       <c r="W98">
-        <v>0.1291742044567762</v>
+        <v>0.1226742044567762</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.5430314043262005</v>
+        <v>0.5682076106608673</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.1899291083851884</v>
+        <v>0.1862347219007237</v>
       </c>
       <c r="C99">
-        <v>-562.0338104122008</v>
+        <v>-547.7975743448887</v>
       </c>
       <c r="D99">
-        <v>426.5671895877995</v>
+        <v>440.8034256551115</v>
       </c>
       <c r="E99">
         <v>1106.801</v>
@@ -9354,37 +9354,37 @@
         <v>88.2</v>
       </c>
       <c r="M99">
-        <v>164.1134367</v>
+        <v>156.8418802</v>
       </c>
       <c r="N99">
-        <v>-75.91343670000002</v>
+        <v>-68.64188020000002</v>
       </c>
       <c r="O99">
-        <v>-16.700956074</v>
+        <v>-15.101213644</v>
       </c>
       <c r="P99">
-        <v>-59.21248062600002</v>
+        <v>-53.54066655600001</v>
       </c>
       <c r="Q99">
-        <v>-52.51248062600001</v>
+        <v>-46.84066655600001</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.148495736889438</v>
+        <v>2.235516187407284</v>
       </c>
       <c r="T99">
-        <v>22.28582844261511</v>
+        <v>22.15197894383394</v>
       </c>
       <c r="U99">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V99">
-        <v>0.1182352913337047</v>
+        <v>0.1237169560531703</v>
       </c>
       <c r="W99">
-        <v>0.1293548827613455</v>
+        <v>0.1228548827613455</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.5374331424259302</v>
+        <v>0.5623498002416831</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9403,13 +9403,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.1912381083851884</v>
+        <v>0.1875437219007237</v>
       </c>
       <c r="C100">
-        <v>-576.7495650389461</v>
+        <v>-562.5677805591075</v>
       </c>
       <c r="D100">
-        <v>423.384434961054</v>
+        <v>437.5662194408926</v>
       </c>
       <c r="E100">
         <v>1118.334</v>
@@ -9436,37 +9436,37 @@
         <v>88.2</v>
       </c>
       <c r="M100">
-        <v>165.8053278</v>
+        <v>158.4588068</v>
       </c>
       <c r="N100">
-        <v>-77.60532780000001</v>
+        <v>-70.25880680000002</v>
       </c>
       <c r="O100">
-        <v>-17.073172116</v>
+        <v>-15.456937496</v>
       </c>
       <c r="P100">
-        <v>-60.53215568400001</v>
+        <v>-54.80186930400001</v>
       </c>
       <c r="Q100">
-        <v>-53.83215568400001</v>
+        <v>-48.10186930400001</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>3.214843605334158</v>
+        <v>3.348624281110926</v>
       </c>
       <c r="T100">
-        <v>33.42874266392268</v>
+        <v>33.22796841575091</v>
       </c>
       <c r="U100">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V100">
-        <v>0.117028808769075</v>
+        <v>0.1224545381342604</v>
       </c>
       <c r="W100">
-        <v>0.1295318737535767</v>
+        <v>0.1230318737535767</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.5319491307685229</v>
+        <v>0.5566115369739109</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9485,13 +9485,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.1925471083851884</v>
+        <v>0.1888527219007238</v>
       </c>
       <c r="C101">
-        <v>-591.4181763110482</v>
+        <v>-577.2907861195071</v>
       </c>
       <c r="D101">
-        <v>420.2488236889521</v>
+        <v>434.3762138804932</v>
       </c>
       <c r="E101">
         <v>1129.867</v>
@@ -9518,37 +9518,37 @@
         <v>88.2</v>
       </c>
       <c r="M101">
-        <v>167.4972189</v>
+        <v>160.0757334</v>
       </c>
       <c r="N101">
-        <v>-79.29721890000003</v>
+        <v>-71.87573340000002</v>
       </c>
       <c r="O101">
-        <v>-17.44538815800001</v>
+        <v>-15.812661348</v>
       </c>
       <c r="P101">
-        <v>-61.85183074200003</v>
+        <v>-56.06307205200001</v>
       </c>
       <c r="Q101">
-        <v>-55.15183074200002</v>
+        <v>-49.36307205200001</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>6.413887210668315</v>
+        <v>6.687948562221854</v>
       </c>
       <c r="T101">
-        <v>66.85748532784534</v>
+        <v>66.45593683150183</v>
       </c>
       <c r="U101">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V101">
-        <v>0.1158466995895894</v>
+        <v>0.1212176236076517</v>
       </c>
       <c r="W101">
-        <v>0.1297052891702072</v>
+        <v>0.1232052891702072</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.5265759072254064</v>
+        <v>0.5509891982165986</v>
       </c>
       <c r="Z101">
         <v>0</v>
